--- a/INTLINE/data/193/ABS/04_current_prices_seasonally_adjusted_capex.xlsx
+++ b/INTLINE/data/193/ABS/04_current_prices_seasonally_adjusted_capex.xlsx
@@ -12,179 +12,179 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A124797522V">Data1!$U$1:$U$10,Data1!$U$11:$U$149</definedName>
-    <definedName name="A124797522V_Data">Data1!$U$11:$U$149</definedName>
-    <definedName name="A124797522V_Latest">Data1!$U$149</definedName>
-    <definedName name="A124797523W">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$149</definedName>
-    <definedName name="A124797523W_Data">Data1!$AN$11:$AN$149</definedName>
-    <definedName name="A124797523W_Latest">Data1!$AN$149</definedName>
-    <definedName name="A124797588K">Data1!$AK$1:$AK$10,Data1!$AK$132:$AK$149</definedName>
-    <definedName name="A124797588K_Data">Data1!$AK$132:$AK$149</definedName>
-    <definedName name="A124797588K_Latest">Data1!$AK$149</definedName>
-    <definedName name="A124797589L">Data1!$BD$1:$BD$10,Data1!$BD$132:$BD$149</definedName>
-    <definedName name="A124797589L_Data">Data1!$BD$132:$BD$149</definedName>
-    <definedName name="A124797589L_Latest">Data1!$BD$149</definedName>
-    <definedName name="A124797623F">Data1!$R$1:$R$10,Data1!$R$132:$R$149</definedName>
-    <definedName name="A124797623F_Data">Data1!$R$132:$R$149</definedName>
-    <definedName name="A124797623F_Latest">Data1!$R$149</definedName>
-    <definedName name="A124797720J">Data1!$B$1:$B$10,Data1!$B$11:$B$149</definedName>
-    <definedName name="A124797720J_Data">Data1!$B$11:$B$149</definedName>
-    <definedName name="A124797720J_Latest">Data1!$B$149</definedName>
-    <definedName name="A124797820T">Data1!$AJ$1:$AJ$10,Data1!$AJ$132:$AJ$149</definedName>
-    <definedName name="A124797820T_Data">Data1!$AJ$132:$AJ$149</definedName>
-    <definedName name="A124797820T_Latest">Data1!$AJ$149</definedName>
-    <definedName name="A124797821V">Data1!$BC$1:$BC$10,Data1!$BC$132:$BC$149</definedName>
-    <definedName name="A124797821V_Data">Data1!$BC$132:$BC$149</definedName>
-    <definedName name="A124797821V_Latest">Data1!$BC$149</definedName>
-    <definedName name="A124797855T">Data1!$Q$1:$Q$10,Data1!$Q$132:$Q$149</definedName>
-    <definedName name="A124797855T_Data">Data1!$Q$132:$Q$149</definedName>
-    <definedName name="A124797855T_Latest">Data1!$Q$149</definedName>
-    <definedName name="A124798297C">Data1!$W$1:$W$10,Data1!$W$11:$W$149</definedName>
-    <definedName name="A124798297C_Data">Data1!$W$11:$W$149</definedName>
-    <definedName name="A124798297C_Latest">Data1!$W$149</definedName>
-    <definedName name="A124798298F">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$149</definedName>
-    <definedName name="A124798298F_Data">Data1!$AP$11:$AP$149</definedName>
-    <definedName name="A124798298F_Latest">Data1!$AP$149</definedName>
-    <definedName name="A124798346L">Data1!$D$1:$D$10,Data1!$D$11:$D$149</definedName>
-    <definedName name="A124798346L_Data">Data1!$D$11:$D$149</definedName>
-    <definedName name="A124798346L_Latest">Data1!$D$149</definedName>
-    <definedName name="A124798476K">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$149</definedName>
-    <definedName name="A124798476K_Data">Data1!$AI$11:$AI$149</definedName>
-    <definedName name="A124798476K_Latest">Data1!$AI$149</definedName>
-    <definedName name="A124798477L">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$149</definedName>
-    <definedName name="A124798477L_Data">Data1!$BB$11:$BB$149</definedName>
-    <definedName name="A124798477L_Latest">Data1!$BB$149</definedName>
-    <definedName name="A124798525V">Data1!$P$1:$P$10,Data1!$P$11:$P$149</definedName>
-    <definedName name="A124798525V_Data">Data1!$P$11:$P$149</definedName>
-    <definedName name="A124798525V_Latest">Data1!$P$149</definedName>
-    <definedName name="A124798759K">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$149</definedName>
-    <definedName name="A124798759K_Data">Data1!$AC$11:$AC$149</definedName>
-    <definedName name="A124798759K_Latest">Data1!$AC$149</definedName>
-    <definedName name="A124798760V">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$149</definedName>
-    <definedName name="A124798760V_Data">Data1!$AV$11:$AV$149</definedName>
-    <definedName name="A124798760V_Latest">Data1!$AV$149</definedName>
-    <definedName name="A124798808V">Data1!$J$1:$J$10,Data1!$J$11:$J$149</definedName>
-    <definedName name="A124798808V_Data">Data1!$J$11:$J$149</definedName>
-    <definedName name="A124798808V_Latest">Data1!$J$149</definedName>
-    <definedName name="A124798917F">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$149</definedName>
-    <definedName name="A124798917F_Data">Data1!$AM$11:$AM$149</definedName>
-    <definedName name="A124798917F_Latest">Data1!$AM$149</definedName>
-    <definedName name="A124798918J">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$149</definedName>
-    <definedName name="A124798918J_Data">Data1!$BF$11:$BF$149</definedName>
-    <definedName name="A124798918J_Latest">Data1!$BF$149</definedName>
-    <definedName name="A124798966A">Data1!$T$1:$T$10,Data1!$T$11:$T$149</definedName>
-    <definedName name="A124798966A_Data">Data1!$T$11:$T$149</definedName>
-    <definedName name="A124798966A_Latest">Data1!$T$149</definedName>
-    <definedName name="A124799022K">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$149</definedName>
-    <definedName name="A124799022K_Data">Data1!$AL$11:$AL$149</definedName>
-    <definedName name="A124799022K_Latest">Data1!$AL$149</definedName>
-    <definedName name="A124799023L">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$149</definedName>
-    <definedName name="A124799023L_Data">Data1!$BE$11:$BE$149</definedName>
-    <definedName name="A124799023L_Latest">Data1!$BE$149</definedName>
-    <definedName name="A124799071F">Data1!$S$1:$S$10,Data1!$S$11:$S$149</definedName>
-    <definedName name="A124799071F_Data">Data1!$S$11:$S$149</definedName>
-    <definedName name="A124799071F_Latest">Data1!$S$149</definedName>
-    <definedName name="A3515122A">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$149</definedName>
-    <definedName name="A3515122A_Data">Data1!$AG$11:$AG$149</definedName>
-    <definedName name="A3515122A_Latest">Data1!$AG$149</definedName>
-    <definedName name="A3515125J">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$149</definedName>
-    <definedName name="A3515125J_Data">Data1!$AH$11:$AH$149</definedName>
-    <definedName name="A3515125J_Latest">Data1!$AH$149</definedName>
-    <definedName name="A3515137T">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$149</definedName>
-    <definedName name="A3515137T_Data">Data1!$AO$11:$AO$149</definedName>
-    <definedName name="A3515137T_Latest">Data1!$AO$149</definedName>
-    <definedName name="A3515140F">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$149</definedName>
-    <definedName name="A3515140F_Data">Data1!$AQ$11:$AQ$149</definedName>
-    <definedName name="A3515140F_Latest">Data1!$AQ$149</definedName>
-    <definedName name="A3515143L">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$149</definedName>
-    <definedName name="A3515143L_Data">Data1!$AR$11:$AR$149</definedName>
-    <definedName name="A3515143L_Latest">Data1!$AR$149</definedName>
-    <definedName name="A3515146V">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$149</definedName>
-    <definedName name="A3515146V_Data">Data1!$AS$11:$AS$149</definedName>
-    <definedName name="A3515146V_Latest">Data1!$AS$149</definedName>
-    <definedName name="A3515149A">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$149</definedName>
-    <definedName name="A3515149A_Data">Data1!$AT$11:$AT$149</definedName>
-    <definedName name="A3515149A_Latest">Data1!$AT$149</definedName>
-    <definedName name="A3515152R">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$149</definedName>
-    <definedName name="A3515152R_Data">Data1!$AU$11:$AU$149</definedName>
-    <definedName name="A3515152R_Latest">Data1!$AU$149</definedName>
-    <definedName name="A3515155W">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$149</definedName>
-    <definedName name="A3515155W_Data">Data1!$AW$11:$AW$149</definedName>
-    <definedName name="A3515155W_Latest">Data1!$AW$149</definedName>
-    <definedName name="A3515158C">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$149</definedName>
-    <definedName name="A3515158C_Data">Data1!$AX$11:$AX$149</definedName>
-    <definedName name="A3515158C_Latest">Data1!$AX$149</definedName>
-    <definedName name="A3515161T">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$149</definedName>
-    <definedName name="A3515161T_Data">Data1!$AY$11:$AY$149</definedName>
-    <definedName name="A3515161T_Latest">Data1!$AY$149</definedName>
-    <definedName name="A3515164X">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$149</definedName>
-    <definedName name="A3515164X_Data">Data1!$AZ$11:$AZ$149</definedName>
-    <definedName name="A3515164X_Latest">Data1!$AZ$149</definedName>
-    <definedName name="A3515167F">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$149</definedName>
-    <definedName name="A3515167F_Data">Data1!$BA$11:$BA$149</definedName>
-    <definedName name="A3515167F_Latest">Data1!$BA$149</definedName>
-    <definedName name="A3517294J">Data1!$C$1:$C$10,Data1!$C$11:$C$149</definedName>
-    <definedName name="A3517294J_Data">Data1!$C$11:$C$149</definedName>
-    <definedName name="A3517294J_Latest">Data1!$C$149</definedName>
-    <definedName name="A3517297R">Data1!$E$1:$E$10,Data1!$E$11:$E$149</definedName>
-    <definedName name="A3517297R_Data">Data1!$E$11:$E$149</definedName>
-    <definedName name="A3517297R_Latest">Data1!$E$149</definedName>
-    <definedName name="A3517300T">Data1!$F$1:$F$10,Data1!$F$11:$F$149</definedName>
-    <definedName name="A3517300T_Data">Data1!$F$11:$F$149</definedName>
-    <definedName name="A3517300T_Latest">Data1!$F$149</definedName>
-    <definedName name="A3517303X">Data1!$G$1:$G$10,Data1!$G$11:$G$149</definedName>
-    <definedName name="A3517303X_Data">Data1!$G$11:$G$149</definedName>
-    <definedName name="A3517303X_Latest">Data1!$G$149</definedName>
-    <definedName name="A3517306F">Data1!$H$1:$H$10,Data1!$H$11:$H$149</definedName>
-    <definedName name="A3517306F_Data">Data1!$H$11:$H$149</definedName>
-    <definedName name="A3517306F_Latest">Data1!$H$149</definedName>
-    <definedName name="A3517309L">Data1!$I$1:$I$10,Data1!$I$11:$I$149</definedName>
-    <definedName name="A3517309L_Data">Data1!$I$11:$I$149</definedName>
-    <definedName name="A3517309L_Latest">Data1!$I$149</definedName>
-    <definedName name="A3517312A">Data1!$K$1:$K$10,Data1!$K$11:$K$149</definedName>
-    <definedName name="A3517312A_Data">Data1!$K$11:$K$149</definedName>
-    <definedName name="A3517312A_Latest">Data1!$K$149</definedName>
-    <definedName name="A3517315J">Data1!$L$1:$L$10,Data1!$L$11:$L$149</definedName>
-    <definedName name="A3517315J_Data">Data1!$L$11:$L$149</definedName>
-    <definedName name="A3517315J_Latest">Data1!$L$149</definedName>
-    <definedName name="A3517318R">Data1!$M$1:$M$10,Data1!$M$11:$M$149</definedName>
-    <definedName name="A3517318R_Data">Data1!$M$11:$M$149</definedName>
-    <definedName name="A3517318R_Latest">Data1!$M$149</definedName>
-    <definedName name="A3517321C">Data1!$N$1:$N$10,Data1!$N$11:$N$149</definedName>
-    <definedName name="A3517321C_Data">Data1!$N$11:$N$149</definedName>
-    <definedName name="A3517321C_Latest">Data1!$N$149</definedName>
-    <definedName name="A3517324K">Data1!$O$1:$O$10,Data1!$O$11:$O$149</definedName>
-    <definedName name="A3517324K_Data">Data1!$O$11:$O$149</definedName>
-    <definedName name="A3517324K_Latest">Data1!$O$149</definedName>
-    <definedName name="A3517336V">Data1!$V$1:$V$10,Data1!$V$11:$V$149</definedName>
-    <definedName name="A3517336V_Data">Data1!$V$11:$V$149</definedName>
-    <definedName name="A3517336V_Latest">Data1!$V$149</definedName>
-    <definedName name="A3517339A">Data1!$X$1:$X$10,Data1!$X$11:$X$149</definedName>
-    <definedName name="A3517339A_Data">Data1!$X$11:$X$149</definedName>
-    <definedName name="A3517339A_Latest">Data1!$X$149</definedName>
-    <definedName name="A3517342R">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$149</definedName>
-    <definedName name="A3517342R_Data">Data1!$Y$11:$Y$149</definedName>
-    <definedName name="A3517342R_Latest">Data1!$Y$149</definedName>
-    <definedName name="A3517345W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$149</definedName>
-    <definedName name="A3517345W_Data">Data1!$Z$11:$Z$149</definedName>
-    <definedName name="A3517345W_Latest">Data1!$Z$149</definedName>
-    <definedName name="A3517348C">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$149</definedName>
-    <definedName name="A3517348C_Data">Data1!$AA$11:$AA$149</definedName>
-    <definedName name="A3517348C_Latest">Data1!$AA$149</definedName>
-    <definedName name="A3517900W">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$149</definedName>
-    <definedName name="A3517900W_Data">Data1!$AB$11:$AB$149</definedName>
-    <definedName name="A3517900W_Latest">Data1!$AB$149</definedName>
-    <definedName name="A3517903C">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$149</definedName>
-    <definedName name="A3517903C_Data">Data1!$AD$11:$AD$149</definedName>
-    <definedName name="A3517903C_Latest">Data1!$AD$149</definedName>
-    <definedName name="A3517906K">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$149</definedName>
-    <definedName name="A3517906K_Data">Data1!$AE$11:$AE$149</definedName>
-    <definedName name="A3517906K_Latest">Data1!$AE$149</definedName>
-    <definedName name="A3517909T">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$149</definedName>
-    <definedName name="A3517909T_Data">Data1!$AF$11:$AF$149</definedName>
-    <definedName name="A3517909T_Latest">Data1!$AF$149</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$149</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$149</definedName>
+    <definedName name="A124797522V">Data1!$U$1:$U$10,Data1!$U$11:$U$150</definedName>
+    <definedName name="A124797522V_Data">Data1!$U$11:$U$150</definedName>
+    <definedName name="A124797522V_Latest">Data1!$U$150</definedName>
+    <definedName name="A124797523W">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$150</definedName>
+    <definedName name="A124797523W_Data">Data1!$AN$11:$AN$150</definedName>
+    <definedName name="A124797523W_Latest">Data1!$AN$150</definedName>
+    <definedName name="A124797588K">Data1!$AK$1:$AK$10,Data1!$AK$132:$AK$150</definedName>
+    <definedName name="A124797588K_Data">Data1!$AK$132:$AK$150</definedName>
+    <definedName name="A124797588K_Latest">Data1!$AK$150</definedName>
+    <definedName name="A124797589L">Data1!$BD$1:$BD$10,Data1!$BD$132:$BD$150</definedName>
+    <definedName name="A124797589L_Data">Data1!$BD$132:$BD$150</definedName>
+    <definedName name="A124797589L_Latest">Data1!$BD$150</definedName>
+    <definedName name="A124797623F">Data1!$R$1:$R$10,Data1!$R$132:$R$150</definedName>
+    <definedName name="A124797623F_Data">Data1!$R$132:$R$150</definedName>
+    <definedName name="A124797623F_Latest">Data1!$R$150</definedName>
+    <definedName name="A124797720J">Data1!$B$1:$B$10,Data1!$B$11:$B$150</definedName>
+    <definedName name="A124797720J_Data">Data1!$B$11:$B$150</definedName>
+    <definedName name="A124797720J_Latest">Data1!$B$150</definedName>
+    <definedName name="A124797820T">Data1!$AJ$1:$AJ$10,Data1!$AJ$132:$AJ$150</definedName>
+    <definedName name="A124797820T_Data">Data1!$AJ$132:$AJ$150</definedName>
+    <definedName name="A124797820T_Latest">Data1!$AJ$150</definedName>
+    <definedName name="A124797821V">Data1!$BC$1:$BC$10,Data1!$BC$132:$BC$150</definedName>
+    <definedName name="A124797821V_Data">Data1!$BC$132:$BC$150</definedName>
+    <definedName name="A124797821V_Latest">Data1!$BC$150</definedName>
+    <definedName name="A124797855T">Data1!$Q$1:$Q$10,Data1!$Q$132:$Q$150</definedName>
+    <definedName name="A124797855T_Data">Data1!$Q$132:$Q$150</definedName>
+    <definedName name="A124797855T_Latest">Data1!$Q$150</definedName>
+    <definedName name="A124798297C">Data1!$W$1:$W$10,Data1!$W$11:$W$150</definedName>
+    <definedName name="A124798297C_Data">Data1!$W$11:$W$150</definedName>
+    <definedName name="A124798297C_Latest">Data1!$W$150</definedName>
+    <definedName name="A124798298F">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$150</definedName>
+    <definedName name="A124798298F_Data">Data1!$AP$11:$AP$150</definedName>
+    <definedName name="A124798298F_Latest">Data1!$AP$150</definedName>
+    <definedName name="A124798346L">Data1!$D$1:$D$10,Data1!$D$11:$D$150</definedName>
+    <definedName name="A124798346L_Data">Data1!$D$11:$D$150</definedName>
+    <definedName name="A124798346L_Latest">Data1!$D$150</definedName>
+    <definedName name="A124798476K">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$150</definedName>
+    <definedName name="A124798476K_Data">Data1!$AI$11:$AI$150</definedName>
+    <definedName name="A124798476K_Latest">Data1!$AI$150</definedName>
+    <definedName name="A124798477L">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$150</definedName>
+    <definedName name="A124798477L_Data">Data1!$BB$11:$BB$150</definedName>
+    <definedName name="A124798477L_Latest">Data1!$BB$150</definedName>
+    <definedName name="A124798525V">Data1!$P$1:$P$10,Data1!$P$11:$P$150</definedName>
+    <definedName name="A124798525V_Data">Data1!$P$11:$P$150</definedName>
+    <definedName name="A124798525V_Latest">Data1!$P$150</definedName>
+    <definedName name="A124798759K">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$150</definedName>
+    <definedName name="A124798759K_Data">Data1!$AC$11:$AC$150</definedName>
+    <definedName name="A124798759K_Latest">Data1!$AC$150</definedName>
+    <definedName name="A124798760V">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$150</definedName>
+    <definedName name="A124798760V_Data">Data1!$AV$11:$AV$150</definedName>
+    <definedName name="A124798760V_Latest">Data1!$AV$150</definedName>
+    <definedName name="A124798808V">Data1!$J$1:$J$10,Data1!$J$11:$J$150</definedName>
+    <definedName name="A124798808V_Data">Data1!$J$11:$J$150</definedName>
+    <definedName name="A124798808V_Latest">Data1!$J$150</definedName>
+    <definedName name="A124798917F">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$150</definedName>
+    <definedName name="A124798917F_Data">Data1!$AM$11:$AM$150</definedName>
+    <definedName name="A124798917F_Latest">Data1!$AM$150</definedName>
+    <definedName name="A124798918J">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$150</definedName>
+    <definedName name="A124798918J_Data">Data1!$BF$11:$BF$150</definedName>
+    <definedName name="A124798918J_Latest">Data1!$BF$150</definedName>
+    <definedName name="A124798966A">Data1!$T$1:$T$10,Data1!$T$11:$T$150</definedName>
+    <definedName name="A124798966A_Data">Data1!$T$11:$T$150</definedName>
+    <definedName name="A124798966A_Latest">Data1!$T$150</definedName>
+    <definedName name="A124799022K">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$150</definedName>
+    <definedName name="A124799022K_Data">Data1!$AL$11:$AL$150</definedName>
+    <definedName name="A124799022K_Latest">Data1!$AL$150</definedName>
+    <definedName name="A124799023L">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$150</definedName>
+    <definedName name="A124799023L_Data">Data1!$BE$11:$BE$150</definedName>
+    <definedName name="A124799023L_Latest">Data1!$BE$150</definedName>
+    <definedName name="A124799071F">Data1!$S$1:$S$10,Data1!$S$11:$S$150</definedName>
+    <definedName name="A124799071F_Data">Data1!$S$11:$S$150</definedName>
+    <definedName name="A124799071F_Latest">Data1!$S$150</definedName>
+    <definedName name="A3515122A">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$150</definedName>
+    <definedName name="A3515122A_Data">Data1!$AG$11:$AG$150</definedName>
+    <definedName name="A3515122A_Latest">Data1!$AG$150</definedName>
+    <definedName name="A3515125J">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$150</definedName>
+    <definedName name="A3515125J_Data">Data1!$AH$11:$AH$150</definedName>
+    <definedName name="A3515125J_Latest">Data1!$AH$150</definedName>
+    <definedName name="A3515137T">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$150</definedName>
+    <definedName name="A3515137T_Data">Data1!$AO$11:$AO$150</definedName>
+    <definedName name="A3515137T_Latest">Data1!$AO$150</definedName>
+    <definedName name="A3515140F">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$150</definedName>
+    <definedName name="A3515140F_Data">Data1!$AQ$11:$AQ$150</definedName>
+    <definedName name="A3515140F_Latest">Data1!$AQ$150</definedName>
+    <definedName name="A3515143L">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$150</definedName>
+    <definedName name="A3515143L_Data">Data1!$AR$11:$AR$150</definedName>
+    <definedName name="A3515143L_Latest">Data1!$AR$150</definedName>
+    <definedName name="A3515146V">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$150</definedName>
+    <definedName name="A3515146V_Data">Data1!$AS$11:$AS$150</definedName>
+    <definedName name="A3515146V_Latest">Data1!$AS$150</definedName>
+    <definedName name="A3515149A">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$150</definedName>
+    <definedName name="A3515149A_Data">Data1!$AT$11:$AT$150</definedName>
+    <definedName name="A3515149A_Latest">Data1!$AT$150</definedName>
+    <definedName name="A3515152R">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$150</definedName>
+    <definedName name="A3515152R_Data">Data1!$AU$11:$AU$150</definedName>
+    <definedName name="A3515152R_Latest">Data1!$AU$150</definedName>
+    <definedName name="A3515155W">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$150</definedName>
+    <definedName name="A3515155W_Data">Data1!$AW$11:$AW$150</definedName>
+    <definedName name="A3515155W_Latest">Data1!$AW$150</definedName>
+    <definedName name="A3515158C">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$150</definedName>
+    <definedName name="A3515158C_Data">Data1!$AX$11:$AX$150</definedName>
+    <definedName name="A3515158C_Latest">Data1!$AX$150</definedName>
+    <definedName name="A3515161T">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$150</definedName>
+    <definedName name="A3515161T_Data">Data1!$AY$11:$AY$150</definedName>
+    <definedName name="A3515161T_Latest">Data1!$AY$150</definedName>
+    <definedName name="A3515164X">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$150</definedName>
+    <definedName name="A3515164X_Data">Data1!$AZ$11:$AZ$150</definedName>
+    <definedName name="A3515164X_Latest">Data1!$AZ$150</definedName>
+    <definedName name="A3515167F">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$150</definedName>
+    <definedName name="A3515167F_Data">Data1!$BA$11:$BA$150</definedName>
+    <definedName name="A3515167F_Latest">Data1!$BA$150</definedName>
+    <definedName name="A3517294J">Data1!$C$1:$C$10,Data1!$C$11:$C$150</definedName>
+    <definedName name="A3517294J_Data">Data1!$C$11:$C$150</definedName>
+    <definedName name="A3517294J_Latest">Data1!$C$150</definedName>
+    <definedName name="A3517297R">Data1!$E$1:$E$10,Data1!$E$11:$E$150</definedName>
+    <definedName name="A3517297R_Data">Data1!$E$11:$E$150</definedName>
+    <definedName name="A3517297R_Latest">Data1!$E$150</definedName>
+    <definedName name="A3517300T">Data1!$F$1:$F$10,Data1!$F$11:$F$150</definedName>
+    <definedName name="A3517300T_Data">Data1!$F$11:$F$150</definedName>
+    <definedName name="A3517300T_Latest">Data1!$F$150</definedName>
+    <definedName name="A3517303X">Data1!$G$1:$G$10,Data1!$G$11:$G$150</definedName>
+    <definedName name="A3517303X_Data">Data1!$G$11:$G$150</definedName>
+    <definedName name="A3517303X_Latest">Data1!$G$150</definedName>
+    <definedName name="A3517306F">Data1!$H$1:$H$10,Data1!$H$11:$H$150</definedName>
+    <definedName name="A3517306F_Data">Data1!$H$11:$H$150</definedName>
+    <definedName name="A3517306F_Latest">Data1!$H$150</definedName>
+    <definedName name="A3517309L">Data1!$I$1:$I$10,Data1!$I$11:$I$150</definedName>
+    <definedName name="A3517309L_Data">Data1!$I$11:$I$150</definedName>
+    <definedName name="A3517309L_Latest">Data1!$I$150</definedName>
+    <definedName name="A3517312A">Data1!$K$1:$K$10,Data1!$K$11:$K$150</definedName>
+    <definedName name="A3517312A_Data">Data1!$K$11:$K$150</definedName>
+    <definedName name="A3517312A_Latest">Data1!$K$150</definedName>
+    <definedName name="A3517315J">Data1!$L$1:$L$10,Data1!$L$11:$L$150</definedName>
+    <definedName name="A3517315J_Data">Data1!$L$11:$L$150</definedName>
+    <definedName name="A3517315J_Latest">Data1!$L$150</definedName>
+    <definedName name="A3517318R">Data1!$M$1:$M$10,Data1!$M$11:$M$150</definedName>
+    <definedName name="A3517318R_Data">Data1!$M$11:$M$150</definedName>
+    <definedName name="A3517318R_Latest">Data1!$M$150</definedName>
+    <definedName name="A3517321C">Data1!$N$1:$N$10,Data1!$N$11:$N$150</definedName>
+    <definedName name="A3517321C_Data">Data1!$N$11:$N$150</definedName>
+    <definedName name="A3517321C_Latest">Data1!$N$150</definedName>
+    <definedName name="A3517324K">Data1!$O$1:$O$10,Data1!$O$11:$O$150</definedName>
+    <definedName name="A3517324K_Data">Data1!$O$11:$O$150</definedName>
+    <definedName name="A3517324K_Latest">Data1!$O$150</definedName>
+    <definedName name="A3517336V">Data1!$V$1:$V$10,Data1!$V$11:$V$150</definedName>
+    <definedName name="A3517336V_Data">Data1!$V$11:$V$150</definedName>
+    <definedName name="A3517336V_Latest">Data1!$V$150</definedName>
+    <definedName name="A3517339A">Data1!$X$1:$X$10,Data1!$X$11:$X$150</definedName>
+    <definedName name="A3517339A_Data">Data1!$X$11:$X$150</definedName>
+    <definedName name="A3517339A_Latest">Data1!$X$150</definedName>
+    <definedName name="A3517342R">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$150</definedName>
+    <definedName name="A3517342R_Data">Data1!$Y$11:$Y$150</definedName>
+    <definedName name="A3517342R_Latest">Data1!$Y$150</definedName>
+    <definedName name="A3517345W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$150</definedName>
+    <definedName name="A3517345W_Data">Data1!$Z$11:$Z$150</definedName>
+    <definedName name="A3517345W_Latest">Data1!$Z$150</definedName>
+    <definedName name="A3517348C">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$150</definedName>
+    <definedName name="A3517348C_Data">Data1!$AA$11:$AA$150</definedName>
+    <definedName name="A3517348C_Latest">Data1!$AA$150</definedName>
+    <definedName name="A3517900W">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$150</definedName>
+    <definedName name="A3517900W_Data">Data1!$AB$11:$AB$150</definedName>
+    <definedName name="A3517900W_Latest">Data1!$AB$150</definedName>
+    <definedName name="A3517903C">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$150</definedName>
+    <definedName name="A3517903C_Data">Data1!$AD$11:$AD$150</definedName>
+    <definedName name="A3517903C_Latest">Data1!$AD$150</definedName>
+    <definedName name="A3517906K">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$150</definedName>
+    <definedName name="A3517906K_Data">Data1!$AE$11:$AE$150</definedName>
+    <definedName name="A3517906K_Latest">Data1!$AE$150</definedName>
+    <definedName name="A3517909T">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$150</definedName>
+    <definedName name="A3517909T_Data">Data1!$AF$11:$AF$150</definedName>
+    <definedName name="A3517909T_Latest">Data1!$AF$150</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$150</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$150</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2210,10 +2210,10 @@
         <v>31929</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>66</v>
@@ -2242,10 +2242,10 @@
         <v>31929</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>66</v>
@@ -2274,10 +2274,10 @@
         <v>31929</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>66</v>
@@ -2306,10 +2306,10 @@
         <v>31929</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>66</v>
@@ -2338,10 +2338,10 @@
         <v>42979</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>66</v>
@@ -2370,10 +2370,10 @@
         <v>31929</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>66</v>
@@ -2402,10 +2402,10 @@
         <v>31929</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>66</v>
@@ -2434,10 +2434,10 @@
         <v>42979</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>66</v>
@@ -2466,10 +2466,10 @@
         <v>31929</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>66</v>
@@ -2498,10 +2498,10 @@
         <v>31929</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>66</v>
@@ -2530,10 +2530,10 @@
         <v>31929</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>66</v>
@@ -2562,10 +2562,10 @@
         <v>31929</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>66</v>
@@ -2594,10 +2594,10 @@
         <v>31929</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>66</v>
@@ -2626,10 +2626,10 @@
         <v>31929</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>66</v>
@@ -2658,10 +2658,10 @@
         <v>31929</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>66</v>
@@ -2690,10 +2690,10 @@
         <v>31929</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>66</v>
@@ -2722,10 +2722,10 @@
         <v>31929</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>66</v>
@@ -2754,10 +2754,10 @@
         <v>31929</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>66</v>
@@ -2786,10 +2786,10 @@
         <v>31929</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>66</v>
@@ -2818,10 +2818,10 @@
         <v>31929</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>66</v>
@@ -2850,10 +2850,10 @@
         <v>31929</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>66</v>
@@ -2882,10 +2882,10 @@
         <v>31929</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>66</v>
@@ -2914,10 +2914,10 @@
         <v>31929</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>66</v>
@@ -2946,10 +2946,10 @@
         <v>42979</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>66</v>
@@ -2978,10 +2978,10 @@
         <v>31929</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>66</v>
@@ -3010,10 +3010,10 @@
         <v>31929</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>66</v>
@@ -3042,10 +3042,10 @@
         <v>42979</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>66</v>
@@ -3074,10 +3074,10 @@
         <v>31929</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>66</v>
@@ -3106,10 +3106,10 @@
         <v>31929</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>66</v>
@@ -3138,10 +3138,10 @@
         <v>31929</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>66</v>
@@ -3170,10 +3170,10 @@
         <v>31929</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>66</v>
@@ -3202,10 +3202,10 @@
         <v>31929</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>66</v>
@@ -3234,10 +3234,10 @@
         <v>31929</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>66</v>
@@ -3266,10 +3266,10 @@
         <v>31929</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>66</v>
@@ -3298,10 +3298,10 @@
         <v>31929</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>66</v>
@@ -3330,10 +3330,10 @@
         <v>31929</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>66</v>
@@ -3362,10 +3362,10 @@
         <v>31929</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>66</v>
@@ -3394,10 +3394,10 @@
         <v>31929</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>66</v>
@@ -3426,10 +3426,10 @@
         <v>31929</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>66</v>
@@ -3458,10 +3458,10 @@
         <v>31929</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>66</v>
@@ -3490,10 +3490,10 @@
         <v>31929</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>66</v>
@@ -3522,10 +3522,10 @@
         <v>31929</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>66</v>
@@ -3554,10 +3554,10 @@
         <v>42979</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>66</v>
@@ -3586,10 +3586,10 @@
         <v>31929</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>66</v>
@@ -3618,10 +3618,10 @@
         <v>31929</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>66</v>
@@ -3650,10 +3650,10 @@
         <v>42979</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>66</v>
@@ -3682,10 +3682,10 @@
         <v>31929</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>66</v>
@@ -3714,10 +3714,10 @@
         <v>31929</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>66</v>
@@ -3746,10 +3746,10 @@
         <v>31929</v>
       </c>
       <c r="G60" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H60" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>66</v>
@@ -3778,10 +3778,10 @@
         <v>31929</v>
       </c>
       <c r="G61" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H61" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>66</v>
@@ -3810,10 +3810,10 @@
         <v>31929</v>
       </c>
       <c r="G62" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H62" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>66</v>
@@ -3842,10 +3842,10 @@
         <v>31929</v>
       </c>
       <c r="G63" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H63" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>66</v>
@@ -3874,10 +3874,10 @@
         <v>31929</v>
       </c>
       <c r="G64" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H64" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>66</v>
@@ -3906,10 +3906,10 @@
         <v>31929</v>
       </c>
       <c r="G65" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H65" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>66</v>
@@ -3938,10 +3938,10 @@
         <v>31929</v>
       </c>
       <c r="G66" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H66" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>66</v>
@@ -3970,10 +3970,10 @@
         <v>31929</v>
       </c>
       <c r="G67" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H67" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>66</v>
@@ -4002,10 +4002,10 @@
         <v>31929</v>
       </c>
       <c r="G68" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H68" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>66</v>
@@ -4100,7 +4100,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF149"/>
+  <dimension ref="A1:BF150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -5348,175 +5348,175 @@
         <v>63</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
@@ -5524,175 +5524,175 @@
         <v>64</v>
       </c>
       <c r="B9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="X9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AA9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AB9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AE9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AI9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AP9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AQ9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AR9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AS9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AT9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AU9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AV9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AW9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AX9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AY9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AZ9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BA9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BB9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BC9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BE9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BF9" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
@@ -17121,7 +17121,7 @@
         <v>220</v>
       </c>
       <c r="K82" s="8">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L82" s="8">
         <v>254</v>
@@ -19317,7 +19317,7 @@
         <v>696</v>
       </c>
       <c r="AG96" s="8">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="AH96" s="8">
         <v>738</v>
@@ -19475,7 +19475,7 @@
         <v>689</v>
       </c>
       <c r="AG97" s="8">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="AH97" s="8">
         <v>844</v>
@@ -19546,7 +19546,7 @@
         <v>39873</v>
       </c>
       <c r="B98" s="8">
-        <v>15096</v>
+        <v>15097</v>
       </c>
       <c r="C98" s="8">
         <v>7387</v>
@@ -20000,7 +20000,7 @@
         <v>613</v>
       </c>
       <c r="AZ100" s="8">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="BA100" s="8">
         <v>923</v>
@@ -20257,7 +20257,7 @@
       <c r="AE102" s="8"/>
       <c r="AF102" s="8"/>
       <c r="AG102" s="8">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="AH102" s="8">
         <v>790</v>
@@ -20299,7 +20299,7 @@
         <v>668</v>
       </c>
       <c r="AW102" s="8">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="AX102" s="8">
         <v>1253</v>
@@ -20328,7 +20328,7 @@
         <v>40330</v>
       </c>
       <c r="B103" s="8">
-        <v>14660</v>
+        <v>14659</v>
       </c>
       <c r="C103" s="8">
         <v>7272</v>
@@ -20784,7 +20784,7 @@
         <v>9239</v>
       </c>
       <c r="D106" s="8">
-        <v>8657</v>
+        <v>8658</v>
       </c>
       <c r="E106" s="8">
         <v>1253</v>
@@ -20805,7 +20805,7 @@
         <v>308</v>
       </c>
       <c r="K106" s="8">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -20852,7 +20852,7 @@
         <v>370</v>
       </c>
       <c r="AD106" s="8">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="AE106" s="8"/>
       <c r="AF106" s="8"/>
@@ -20937,7 +20937,7 @@
         <v>8895</v>
       </c>
       <c r="E107" s="8">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F107" s="8">
         <v>945</v>
@@ -21025,7 +21025,7 @@
         <v>34387</v>
       </c>
       <c r="AO107" s="8">
-        <v>13810</v>
+        <v>13809</v>
       </c>
       <c r="AP107" s="8">
         <v>20578</v>
@@ -21186,7 +21186,7 @@
         <v>17611</v>
       </c>
       <c r="AP108" s="8">
-        <v>20942</v>
+        <v>20941</v>
       </c>
       <c r="AQ108" s="8">
         <v>3674</v>
@@ -21216,7 +21216,7 @@
         <v>719</v>
       </c>
       <c r="AZ108" s="8">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="BA108" s="8">
         <v>858</v>
@@ -21386,13 +21386,13 @@
         <v>40969</v>
       </c>
       <c r="B110" s="8">
-        <v>27189</v>
+        <v>27190</v>
       </c>
       <c r="C110" s="8">
         <v>18359</v>
       </c>
       <c r="D110" s="8">
-        <v>8830</v>
+        <v>8831</v>
       </c>
       <c r="E110" s="8">
         <v>1474</v>
@@ -21446,7 +21446,7 @@
         <v>11551</v>
       </c>
       <c r="X110" s="8">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="Y110" s="8">
         <v>543</v>
@@ -21488,7 +21488,7 @@
         <v>245</v>
       </c>
       <c r="AN110" s="8">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="AO110" s="8">
         <v>21891</v>
@@ -21515,7 +21515,7 @@
         <v>554</v>
       </c>
       <c r="AW110" s="8">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="AX110" s="8">
         <v>1333</v>
@@ -21598,7 +21598,7 @@
         <v>15128</v>
       </c>
       <c r="V111" s="8">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="W111" s="8">
         <v>11088</v>
@@ -21628,7 +21628,7 @@
         <v>392</v>
       </c>
       <c r="AF111" s="8">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG111" s="8">
         <v>1045</v>
@@ -21646,7 +21646,7 @@
         <v>199</v>
       </c>
       <c r="AN111" s="8">
-        <v>43564</v>
+        <v>43563</v>
       </c>
       <c r="AO111" s="8">
         <v>24301</v>
@@ -21711,7 +21711,7 @@
         <v>7832</v>
       </c>
       <c r="E112" s="8">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F112" s="8">
         <v>768</v>
@@ -21750,7 +21750,7 @@
         <v>139</v>
       </c>
       <c r="T112" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U112" s="8">
         <v>15380</v>
@@ -21771,7 +21771,7 @@
         <v>1460</v>
       </c>
       <c r="AA112" s="8">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB112" s="8">
         <v>606</v>
@@ -21789,7 +21789,7 @@
         <v>611</v>
       </c>
       <c r="AG112" s="8">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="AH112" s="8">
         <v>735</v>
@@ -21810,7 +21810,7 @@
         <v>23912</v>
       </c>
       <c r="AP112" s="8">
-        <v>19038</v>
+        <v>19037</v>
       </c>
       <c r="AQ112" s="8">
         <v>2479</v>
@@ -21831,7 +21831,7 @@
         <v>614</v>
       </c>
       <c r="AW112" s="8">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="AX112" s="8">
         <v>1500</v>
@@ -21852,7 +21852,7 @@
         <v>260</v>
       </c>
       <c r="BF112" s="8">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:58" x14ac:dyDescent="0.2">
@@ -21872,7 +21872,7 @@
         <v>733</v>
       </c>
       <c r="F113" s="8">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G113" s="8">
         <v>77</v>
@@ -21950,7 +21950,7 @@
         <v>1364</v>
       </c>
       <c r="AH113" s="8">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AI113" s="8">
         <v>274</v>
@@ -21965,7 +21965,7 @@
         <v>42403</v>
       </c>
       <c r="AO113" s="8">
-        <v>24101</v>
+        <v>24102</v>
       </c>
       <c r="AP113" s="8">
         <v>18301</v>
@@ -22018,13 +22018,13 @@
         <v>41334</v>
       </c>
       <c r="B114" s="8">
-        <v>26562</v>
+        <v>26563</v>
       </c>
       <c r="C114" s="8">
         <v>19669</v>
       </c>
       <c r="D114" s="8">
-        <v>6893</v>
+        <v>6894</v>
       </c>
       <c r="E114" s="8">
         <v>735</v>
@@ -22102,7 +22102,7 @@
         <v>266</v>
       </c>
       <c r="AF114" s="8">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AG114" s="8">
         <v>1311</v>
@@ -22120,13 +22120,13 @@
         <v>228</v>
       </c>
       <c r="AN114" s="8">
-        <v>41091</v>
+        <v>41092</v>
       </c>
       <c r="AO114" s="8">
         <v>23089</v>
       </c>
       <c r="AP114" s="8">
-        <v>18002</v>
+        <v>18003</v>
       </c>
       <c r="AQ114" s="8">
         <v>2354</v>
@@ -22156,7 +22156,7 @@
         <v>817</v>
       </c>
       <c r="AZ114" s="8">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BA114" s="8">
         <v>675</v>
@@ -22176,13 +22176,13 @@
         <v>41426</v>
       </c>
       <c r="B115" s="8">
-        <v>27306</v>
+        <v>27305</v>
       </c>
       <c r="C115" s="8">
         <v>20558</v>
       </c>
       <c r="D115" s="8">
-        <v>6748</v>
+        <v>6747</v>
       </c>
       <c r="E115" s="8">
         <v>680</v>
@@ -22278,10 +22278,10 @@
         <v>301</v>
       </c>
       <c r="AN115" s="8">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="AO115" s="8">
-        <v>23628</v>
+        <v>23627</v>
       </c>
       <c r="AP115" s="8">
         <v>18077</v>
@@ -22299,7 +22299,7 @@
         <v>801</v>
       </c>
       <c r="AU115" s="8">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="AV115" s="8">
         <v>725</v>
@@ -22340,7 +22340,7 @@
         <v>21395</v>
       </c>
       <c r="D116" s="8">
-        <v>7278</v>
+        <v>7277</v>
       </c>
       <c r="E116" s="8">
         <v>724</v>
@@ -22403,7 +22403,7 @@
         <v>1079</v>
       </c>
       <c r="AA116" s="8">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AB116" s="8">
         <v>908</v>
@@ -22436,7 +22436,7 @@
         <v>276</v>
       </c>
       <c r="AN116" s="8">
-        <v>43066</v>
+        <v>43065</v>
       </c>
       <c r="AO116" s="8">
         <v>24288</v>
@@ -22466,7 +22466,7 @@
         <v>3069</v>
       </c>
       <c r="AX116" s="8">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="AY116" s="8">
         <v>785</v>
@@ -22484,7 +22484,7 @@
         <v>278</v>
       </c>
       <c r="BF116" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:58" x14ac:dyDescent="0.2">
@@ -22549,7 +22549,7 @@
         <v>2145</v>
       </c>
       <c r="W117" s="8">
-        <v>11153</v>
+        <v>11152</v>
       </c>
       <c r="X117" s="8">
         <v>1646</v>
@@ -22594,10 +22594,10 @@
         <v>302</v>
       </c>
       <c r="AN117" s="8">
-        <v>41233</v>
+        <v>41234</v>
       </c>
       <c r="AO117" s="8">
-        <v>22930</v>
+        <v>22931</v>
       </c>
       <c r="AP117" s="8">
         <v>18303</v>
@@ -22650,13 +22650,13 @@
         <v>41699</v>
       </c>
       <c r="B118" s="8">
-        <v>26736</v>
+        <v>26737</v>
       </c>
       <c r="C118" s="8">
         <v>18921</v>
       </c>
       <c r="D118" s="8">
-        <v>7815</v>
+        <v>7816</v>
       </c>
       <c r="E118" s="8">
         <v>652</v>
@@ -22677,7 +22677,7 @@
         <v>239</v>
       </c>
       <c r="K118" s="8">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="L118" s="8">
         <v>1101</v>
@@ -22710,7 +22710,7 @@
         <v>11336</v>
       </c>
       <c r="X118" s="8">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="Y118" s="8">
         <v>557</v>
@@ -22728,7 +22728,7 @@
         <v>463</v>
       </c>
       <c r="AD118" s="8">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="AE118" s="8">
         <v>363</v>
@@ -22752,19 +22752,19 @@
         <v>271</v>
       </c>
       <c r="AN118" s="8">
-        <v>40486</v>
+        <v>40487</v>
       </c>
       <c r="AO118" s="8">
         <v>21301</v>
       </c>
       <c r="AP118" s="8">
-        <v>19185</v>
+        <v>19186</v>
       </c>
       <c r="AQ118" s="8">
         <v>2353</v>
       </c>
       <c r="AR118" s="8">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AS118" s="8">
         <v>1064</v>
@@ -22773,7 +22773,7 @@
         <v>860</v>
       </c>
       <c r="AU118" s="8">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="AV118" s="8">
         <v>702</v>
@@ -22785,7 +22785,7 @@
         <v>1464</v>
       </c>
       <c r="AY118" s="8">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AZ118" s="8">
         <v>2654</v>
@@ -22808,7 +22808,7 @@
         <v>41791</v>
       </c>
       <c r="B119" s="8">
-        <v>27956</v>
+        <v>27955</v>
       </c>
       <c r="C119" s="8">
         <v>19755</v>
@@ -22820,7 +22820,7 @@
         <v>638</v>
       </c>
       <c r="F119" s="8">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G119" s="8">
         <v>142</v>
@@ -22886,13 +22886,13 @@
         <v>419</v>
       </c>
       <c r="AD119" s="8">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="AE119" s="8">
         <v>342</v>
       </c>
       <c r="AF119" s="8">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AG119" s="8">
         <v>1082</v>
@@ -22910,10 +22910,10 @@
         <v>295</v>
       </c>
       <c r="AN119" s="8">
-        <v>41192</v>
+        <v>41191</v>
       </c>
       <c r="AO119" s="8">
-        <v>21875</v>
+        <v>21874</v>
       </c>
       <c r="AP119" s="8">
         <v>19317</v>
@@ -22931,7 +22931,7 @@
         <v>755</v>
       </c>
       <c r="AU119" s="8">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="AV119" s="8">
         <v>655</v>
@@ -22946,7 +22946,7 @@
         <v>854</v>
       </c>
       <c r="AZ119" s="8">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BA119" s="8">
         <v>808</v>
@@ -22966,13 +22966,13 @@
         <v>41883</v>
       </c>
       <c r="B120" s="8">
-        <v>27455</v>
+        <v>27454</v>
       </c>
       <c r="C120" s="8">
         <v>18533</v>
       </c>
       <c r="D120" s="8">
-        <v>8922</v>
+        <v>8921</v>
       </c>
       <c r="E120" s="8">
         <v>692</v>
@@ -23032,7 +23032,7 @@
         <v>469</v>
       </c>
       <c r="Z120" s="8">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AA120" s="8">
         <v>653</v>
@@ -23044,7 +23044,7 @@
         <v>356</v>
       </c>
       <c r="AD120" s="8">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="AE120" s="8">
         <v>302</v>
@@ -23053,7 +23053,7 @@
         <v>691</v>
       </c>
       <c r="AG120" s="8">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="AH120" s="8">
         <v>789</v>
@@ -23065,19 +23065,19 @@
         <v>193</v>
       </c>
       <c r="AM120" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AN120" s="8">
-        <v>41713</v>
+        <v>41712</v>
       </c>
       <c r="AO120" s="8">
         <v>20783</v>
       </c>
       <c r="AP120" s="8">
-        <v>20930</v>
+        <v>20929</v>
       </c>
       <c r="AQ120" s="8">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="AR120" s="8">
         <v>1337</v>
@@ -23095,7 +23095,7 @@
         <v>645</v>
       </c>
       <c r="AW120" s="8">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="AX120" s="8">
         <v>1393</v>
@@ -23104,7 +23104,7 @@
         <v>919</v>
       </c>
       <c r="AZ120" s="8">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="BA120" s="8">
         <v>899</v>
@@ -23113,10 +23113,10 @@
         <v>227</v>
       </c>
       <c r="BE120" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BF120" s="8">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:58" x14ac:dyDescent="0.2">
@@ -23124,10 +23124,10 @@
         <v>41974</v>
       </c>
       <c r="B121" s="8">
-        <v>26753</v>
+        <v>26754</v>
       </c>
       <c r="C121" s="8">
-        <v>17410</v>
+        <v>17411</v>
       </c>
       <c r="D121" s="8">
         <v>9343</v>
@@ -23145,7 +23145,7 @@
         <v>227</v>
       </c>
       <c r="I121" s="8">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J121" s="8">
         <v>292</v>
@@ -23154,7 +23154,7 @@
         <v>1254</v>
       </c>
       <c r="L121" s="8">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="M121" s="8">
         <v>226</v>
@@ -23181,7 +23181,7 @@
         <v>2303</v>
       </c>
       <c r="W121" s="8">
-        <v>11905</v>
+        <v>11904</v>
       </c>
       <c r="X121" s="8">
         <v>1492</v>
@@ -23217,7 +23217,7 @@
         <v>741</v>
       </c>
       <c r="AI121" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL121" s="8">
         <v>164</v>
@@ -23226,10 +23226,10 @@
         <v>290</v>
       </c>
       <c r="AN121" s="8">
-        <v>40944</v>
+        <v>40945</v>
       </c>
       <c r="AO121" s="8">
-        <v>19713</v>
+        <v>19714</v>
       </c>
       <c r="AP121" s="8">
         <v>21231</v>
@@ -23247,7 +23247,7 @@
         <v>973</v>
       </c>
       <c r="AU121" s="8">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AV121" s="8">
         <v>757</v>
@@ -23282,13 +23282,13 @@
         <v>42064</v>
       </c>
       <c r="B122" s="8">
-        <v>24722</v>
+        <v>24723</v>
       </c>
       <c r="C122" s="8">
         <v>16566</v>
       </c>
       <c r="D122" s="8">
-        <v>8155</v>
+        <v>8156</v>
       </c>
       <c r="E122" s="8">
         <v>487</v>
@@ -23315,7 +23315,7 @@
         <v>1194</v>
       </c>
       <c r="M122" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N122" s="8">
         <v>1827</v>
@@ -23345,10 +23345,10 @@
         <v>1695</v>
       </c>
       <c r="Y122" s="8">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z122" s="8">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="AA122" s="8">
         <v>593</v>
@@ -23360,16 +23360,16 @@
         <v>494</v>
       </c>
       <c r="AD122" s="8">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="AE122" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF122" s="8">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AG122" s="8">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AH122" s="8">
         <v>742</v>
@@ -23381,19 +23381,19 @@
         <v>171</v>
       </c>
       <c r="AM122" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN122" s="8">
-        <v>39035</v>
+        <v>39036</v>
       </c>
       <c r="AO122" s="8">
         <v>18683</v>
       </c>
       <c r="AP122" s="8">
-        <v>20352</v>
+        <v>20353</v>
       </c>
       <c r="AQ122" s="8">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="AR122" s="8">
         <v>1238</v>
@@ -23405,19 +23405,19 @@
         <v>719</v>
       </c>
       <c r="AU122" s="8">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="AV122" s="8">
         <v>808</v>
       </c>
       <c r="AW122" s="8">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="AX122" s="8">
         <v>1529</v>
       </c>
       <c r="AY122" s="8">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AZ122" s="8">
         <v>2792</v>
@@ -23440,10 +23440,10 @@
         <v>42156</v>
       </c>
       <c r="B123" s="8">
-        <v>23991</v>
+        <v>23990</v>
       </c>
       <c r="C123" s="8">
-        <v>15094</v>
+        <v>15093</v>
       </c>
       <c r="D123" s="8">
         <v>8898</v>
@@ -23494,10 +23494,10 @@
         <v>13912</v>
       </c>
       <c r="V123" s="8">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="W123" s="8">
-        <v>12077</v>
+        <v>12078</v>
       </c>
       <c r="X123" s="8">
         <v>1556</v>
@@ -23512,13 +23512,13 @@
         <v>703</v>
       </c>
       <c r="AB123" s="8">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AC123" s="8">
         <v>517</v>
       </c>
       <c r="AD123" s="8">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="AE123" s="8">
         <v>310</v>
@@ -23530,22 +23530,22 @@
         <v>845</v>
       </c>
       <c r="AH123" s="8">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AI123" s="8">
         <v>298</v>
       </c>
       <c r="AL123" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM123" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN123" s="8">
-        <v>37876</v>
+        <v>37874</v>
       </c>
       <c r="AO123" s="8">
-        <v>16928</v>
+        <v>16927</v>
       </c>
       <c r="AP123" s="8">
         <v>20948</v>
@@ -23566,16 +23566,16 @@
         <v>1342</v>
       </c>
       <c r="AV123" s="8">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AW123" s="8">
         <v>3256</v>
       </c>
       <c r="AX123" s="8">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AY123" s="8">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AZ123" s="8">
         <v>3090</v>
@@ -23598,13 +23598,13 @@
         <v>42248</v>
       </c>
       <c r="B124" s="8">
-        <v>21677</v>
+        <v>21676</v>
       </c>
       <c r="C124" s="8">
         <v>13229</v>
       </c>
       <c r="D124" s="8">
-        <v>8448</v>
+        <v>8447</v>
       </c>
       <c r="E124" s="8">
         <v>488</v>
@@ -23625,7 +23625,7 @@
         <v>428</v>
       </c>
       <c r="K124" s="8">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L124" s="8">
         <v>1169</v>
@@ -23640,7 +23640,7 @@
         <v>37</v>
       </c>
       <c r="P124" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S124" s="8">
         <v>187</v>
@@ -23658,13 +23658,13 @@
         <v>11719</v>
       </c>
       <c r="X124" s="8">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="Y124" s="8">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z124" s="8">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AA124" s="8">
         <v>726</v>
@@ -23676,13 +23676,13 @@
         <v>479</v>
       </c>
       <c r="AD124" s="8">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="AE124" s="8">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF124" s="8">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG124" s="8">
         <v>787</v>
@@ -23709,7 +23709,7 @@
         <v>20170</v>
       </c>
       <c r="AQ124" s="8">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="AR124" s="8">
         <v>1367</v>
@@ -23727,7 +23727,7 @@
         <v>907</v>
       </c>
       <c r="AW124" s="8">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="AX124" s="8">
         <v>1549</v>
@@ -23742,7 +23742,7 @@
         <v>688</v>
       </c>
       <c r="BB124" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BE124" s="8">
         <v>302</v>
@@ -23756,19 +23756,19 @@
         <v>42339</v>
       </c>
       <c r="B125" s="8">
-        <v>22309</v>
+        <v>22311</v>
       </c>
       <c r="C125" s="8">
-        <v>13601</v>
+        <v>13602</v>
       </c>
       <c r="D125" s="8">
-        <v>8708</v>
+        <v>8709</v>
       </c>
       <c r="E125" s="8">
         <v>460</v>
       </c>
       <c r="F125" s="8">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G125" s="8">
         <v>38</v>
@@ -23777,7 +23777,7 @@
         <v>280</v>
       </c>
       <c r="I125" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J125" s="8">
         <v>382</v>
@@ -23789,7 +23789,7 @@
         <v>1218</v>
       </c>
       <c r="M125" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N125" s="8">
         <v>2230</v>
@@ -23798,7 +23798,7 @@
         <v>91</v>
       </c>
       <c r="P125" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S125" s="8">
         <v>224</v>
@@ -23813,7 +23813,7 @@
         <v>1492</v>
       </c>
       <c r="W125" s="8">
-        <v>12116</v>
+        <v>12115</v>
       </c>
       <c r="X125" s="8">
         <v>1695</v>
@@ -23828,28 +23828,28 @@
         <v>696</v>
       </c>
       <c r="AB125" s="8">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AC125" s="8">
         <v>441</v>
       </c>
       <c r="AD125" s="8">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="AE125" s="8">
         <v>405</v>
       </c>
       <c r="AF125" s="8">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AG125" s="8">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AH125" s="8">
         <v>913</v>
       </c>
       <c r="AI125" s="8">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL125" s="8">
         <v>136</v>
@@ -23858,10 +23858,10 @@
         <v>282</v>
       </c>
       <c r="AN125" s="8">
-        <v>35905</v>
+        <v>35907</v>
       </c>
       <c r="AO125" s="8">
-        <v>15092</v>
+        <v>15094</v>
       </c>
       <c r="AP125" s="8">
         <v>20813</v>
@@ -23885,13 +23885,13 @@
         <v>824</v>
       </c>
       <c r="AW125" s="8">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="AX125" s="8">
         <v>1623</v>
       </c>
       <c r="AY125" s="8">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AZ125" s="8">
         <v>3220</v>
@@ -23900,13 +23900,13 @@
         <v>1005</v>
       </c>
       <c r="BB125" s="8">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BE125" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BF125" s="8">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:58" x14ac:dyDescent="0.2">
@@ -23914,55 +23914,55 @@
         <v>42430</v>
       </c>
       <c r="B126" s="8">
-        <v>20207</v>
+        <v>20208</v>
       </c>
       <c r="C126" s="8">
-        <v>11178</v>
+        <v>11177</v>
       </c>
       <c r="D126" s="8">
-        <v>9029</v>
+        <v>9030</v>
       </c>
       <c r="E126" s="8">
         <v>448</v>
       </c>
       <c r="F126" s="8">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G126" s="8">
         <v>55</v>
       </c>
       <c r="H126" s="8">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I126" s="8">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J126" s="8">
         <v>379</v>
       </c>
       <c r="K126" s="8">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="L126" s="8">
         <v>1324</v>
       </c>
       <c r="M126" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N126" s="8">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="O126" s="8">
         <v>112</v>
       </c>
       <c r="P126" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S126" s="8">
         <v>219</v>
       </c>
       <c r="T126" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U126" s="8">
         <v>13517</v>
@@ -23974,34 +23974,34 @@
         <v>12085</v>
       </c>
       <c r="X126" s="8">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="Y126" s="8">
         <v>515</v>
       </c>
       <c r="Z126" s="8">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="AA126" s="8">
         <v>785</v>
       </c>
       <c r="AB126" s="8">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AC126" s="8">
         <v>323</v>
       </c>
       <c r="AD126" s="8">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="AE126" s="8">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF126" s="8">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AG126" s="8">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="AH126" s="8">
         <v>947</v>
@@ -24013,46 +24013,46 @@
         <v>149</v>
       </c>
       <c r="AM126" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN126" s="8">
-        <v>33765</v>
+        <v>33766</v>
       </c>
       <c r="AO126" s="8">
-        <v>12610</v>
+        <v>12609</v>
       </c>
       <c r="AP126" s="8">
-        <v>21155</v>
+        <v>21157</v>
       </c>
       <c r="AQ126" s="8">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="AR126" s="8">
         <v>1340</v>
       </c>
       <c r="AS126" s="8">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="AT126" s="8">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AU126" s="8">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="AV126" s="8">
         <v>703</v>
       </c>
       <c r="AW126" s="8">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="AX126" s="8">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="AY126" s="8">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AZ126" s="8">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="BA126" s="8">
         <v>1060</v>
@@ -24064,7 +24064,7 @@
         <v>368</v>
       </c>
       <c r="BF126" s="8">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="1:58" x14ac:dyDescent="0.2">
@@ -24075,13 +24075,13 @@
         <v>18122</v>
       </c>
       <c r="C127" s="8">
-        <v>9364</v>
+        <v>9363</v>
       </c>
       <c r="D127" s="8">
         <v>8758</v>
       </c>
       <c r="E127" s="8">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F127" s="8">
         <v>857</v>
@@ -24126,13 +24126,13 @@
         <v>13755</v>
       </c>
       <c r="V127" s="8">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="W127" s="8">
         <v>12401</v>
       </c>
       <c r="X127" s="8">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="Y127" s="8">
         <v>433</v>
@@ -24144,13 +24144,13 @@
         <v>910</v>
       </c>
       <c r="AB127" s="8">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AC127" s="8">
         <v>475</v>
       </c>
       <c r="AD127" s="8">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="AE127" s="8">
         <v>400</v>
@@ -24159,25 +24159,25 @@
         <v>857</v>
       </c>
       <c r="AG127" s="8">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="AH127" s="8">
         <v>856</v>
       </c>
       <c r="AI127" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL127" s="8">
         <v>121</v>
       </c>
       <c r="AM127" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN127" s="8">
-        <v>31839</v>
+        <v>31837</v>
       </c>
       <c r="AO127" s="8">
-        <v>10719</v>
+        <v>10717</v>
       </c>
       <c r="AP127" s="8">
         <v>21120</v>
@@ -24195,13 +24195,13 @@
         <v>1107</v>
       </c>
       <c r="AU127" s="8">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="AV127" s="8">
         <v>729</v>
       </c>
       <c r="AW127" s="8">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="AX127" s="8">
         <v>1536</v>
@@ -24210,19 +24210,19 @@
         <v>1008</v>
       </c>
       <c r="AZ127" s="8">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="BA127" s="8">
         <v>987</v>
       </c>
       <c r="BB127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BE127" s="8">
         <v>345</v>
       </c>
       <c r="BF127" s="8">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="128" spans="1:58" x14ac:dyDescent="0.2">
@@ -24230,13 +24230,13 @@
         <v>42614</v>
       </c>
       <c r="B128" s="8">
-        <v>17314</v>
+        <v>17312</v>
       </c>
       <c r="C128" s="8">
         <v>8698</v>
       </c>
       <c r="D128" s="8">
-        <v>8616</v>
+        <v>8615</v>
       </c>
       <c r="E128" s="8">
         <v>486</v>
@@ -24257,7 +24257,7 @@
         <v>221</v>
       </c>
       <c r="K128" s="8">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="L128" s="8">
         <v>1419</v>
@@ -24290,31 +24290,31 @@
         <v>12037</v>
       </c>
       <c r="X128" s="8">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="Y128" s="8">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z128" s="8">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="AA128" s="8">
         <v>786</v>
       </c>
       <c r="AB128" s="8">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AC128" s="8">
         <v>534</v>
       </c>
       <c r="AD128" s="8">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="AE128" s="8">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AF128" s="8">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AG128" s="8">
         <v>1270</v>
@@ -24323,49 +24323,49 @@
         <v>686</v>
       </c>
       <c r="AI128" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL128" s="8">
         <v>184</v>
       </c>
       <c r="AM128" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN128" s="8">
-        <v>30681</v>
+        <v>30679</v>
       </c>
       <c r="AO128" s="8">
         <v>10020</v>
       </c>
       <c r="AP128" s="8">
-        <v>20661</v>
+        <v>20659</v>
       </c>
       <c r="AQ128" s="8">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="AR128" s="8">
         <v>1221</v>
       </c>
       <c r="AS128" s="8">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AT128" s="8">
         <v>1019</v>
       </c>
       <c r="AU128" s="8">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AV128" s="8">
         <v>755</v>
       </c>
       <c r="AW128" s="8">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="AX128" s="8">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AY128" s="8">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="AZ128" s="8">
         <v>3384</v>
@@ -24374,13 +24374,13 @@
         <v>765</v>
       </c>
       <c r="BB128" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BE128" s="8">
         <v>428</v>
       </c>
       <c r="BF128" s="8">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:58" x14ac:dyDescent="0.2">
@@ -24388,13 +24388,13 @@
         <v>42705</v>
       </c>
       <c r="B129" s="8">
-        <v>17571</v>
+        <v>17574</v>
       </c>
       <c r="C129" s="8">
-        <v>8399</v>
+        <v>8401</v>
       </c>
       <c r="D129" s="8">
-        <v>9172</v>
+        <v>9173</v>
       </c>
       <c r="E129" s="8">
         <v>570</v>
@@ -24406,22 +24406,22 @@
         <v>58</v>
       </c>
       <c r="H129" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I129" s="8">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J129" s="8">
         <v>330</v>
       </c>
       <c r="K129" s="8">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L129" s="8">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="M129" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N129" s="8">
         <v>2053</v>
@@ -24430,7 +24430,7 @@
         <v>136</v>
       </c>
       <c r="P129" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S129" s="8">
         <v>211</v>
@@ -24442,46 +24442,46 @@
         <v>13215</v>
       </c>
       <c r="V129" s="8">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="W129" s="8">
-        <v>11786</v>
+        <v>11785</v>
       </c>
       <c r="X129" s="8">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="Y129" s="8">
         <v>359</v>
       </c>
       <c r="Z129" s="8">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="AA129" s="8">
         <v>809</v>
       </c>
       <c r="AB129" s="8">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AC129" s="8">
         <v>534</v>
       </c>
       <c r="AD129" s="8">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="AE129" s="8">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF129" s="8">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AG129" s="8">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="AH129" s="8">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AI129" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL129" s="8">
         <v>131</v>
@@ -24490,16 +24490,16 @@
         <v>259</v>
       </c>
       <c r="AN129" s="8">
-        <v>30780</v>
+        <v>30784</v>
       </c>
       <c r="AO129" s="8">
-        <v>9827</v>
+        <v>9831</v>
       </c>
       <c r="AP129" s="8">
-        <v>20952</v>
+        <v>20953</v>
       </c>
       <c r="AQ129" s="8">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AR129" s="8">
         <v>1290</v>
@@ -24511,19 +24511,19 @@
         <v>1075</v>
       </c>
       <c r="AU129" s="8">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="AV129" s="8">
         <v>864</v>
       </c>
       <c r="AW129" s="8">
-        <v>2309</v>
+        <v>2313</v>
       </c>
       <c r="AX129" s="8">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="AY129" s="8">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="AZ129" s="8">
         <v>3131</v>
@@ -24532,13 +24532,13 @@
         <v>806</v>
       </c>
       <c r="BB129" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BE129" s="8">
         <v>341</v>
       </c>
       <c r="BF129" s="8">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:58" x14ac:dyDescent="0.2">
@@ -24546,13 +24546,13 @@
         <v>42795</v>
       </c>
       <c r="B130" s="8">
-        <v>17895</v>
+        <v>17892</v>
       </c>
       <c r="C130" s="8">
-        <v>8145</v>
+        <v>8143</v>
       </c>
       <c r="D130" s="8">
-        <v>9750</v>
+        <v>9749</v>
       </c>
       <c r="E130" s="8">
         <v>715</v>
@@ -24567,7 +24567,7 @@
         <v>315</v>
       </c>
       <c r="I130" s="8">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J130" s="8">
         <v>320</v>
@@ -24576,13 +24576,13 @@
         <v>876</v>
       </c>
       <c r="L130" s="8">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="M130" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N130" s="8">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="O130" s="8">
         <v>143</v>
@@ -24591,112 +24591,112 @@
         <v>55</v>
       </c>
       <c r="S130" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T130" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U130" s="8">
         <v>13023</v>
       </c>
       <c r="V130" s="8">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="W130" s="8">
-        <v>11683</v>
+        <v>11684</v>
       </c>
       <c r="X130" s="8">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="Y130" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z130" s="8">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="AA130" s="8">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AB130" s="8">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="AC130" s="8">
         <v>480</v>
       </c>
       <c r="AD130" s="8">
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="AE130" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AF130" s="8">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AG130" s="8">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AH130" s="8">
         <v>719</v>
       </c>
       <c r="AI130" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL130" s="8">
         <v>160</v>
       </c>
       <c r="AM130" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN130" s="8">
-        <v>30954</v>
+        <v>30951</v>
       </c>
       <c r="AO130" s="8">
-        <v>9486</v>
+        <v>9483</v>
       </c>
       <c r="AP130" s="8">
         <v>21469</v>
       </c>
       <c r="AQ130" s="8">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="AR130" s="8">
         <v>1470</v>
       </c>
       <c r="AS130" s="8">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="AT130" s="8">
         <v>1014</v>
       </c>
       <c r="AU130" s="8">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="AV130" s="8">
         <v>800</v>
       </c>
       <c r="AW130" s="8">
-        <v>2645</v>
+        <v>2634</v>
       </c>
       <c r="AX130" s="8">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="AY130" s="8">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="AZ130" s="8">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="BA130" s="8">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="BB130" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BE130" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="BF130" s="8">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="131" spans="1:58" x14ac:dyDescent="0.2">
@@ -24704,28 +24704,28 @@
         <v>42887</v>
       </c>
       <c r="B131" s="8">
-        <v>18068</v>
+        <v>18067</v>
       </c>
       <c r="C131" s="8">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="D131" s="8">
-        <v>10064</v>
+        <v>10065</v>
       </c>
       <c r="E131" s="8">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F131" s="8">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G131" s="8">
         <v>113</v>
       </c>
       <c r="H131" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I131" s="8">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J131" s="8">
         <v>318</v>
@@ -24734,7 +24734,7 @@
         <v>1027</v>
       </c>
       <c r="L131" s="8">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="M131" s="8">
         <v>190</v>
@@ -24758,40 +24758,40 @@
         <v>13286</v>
       </c>
       <c r="V131" s="8">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="W131" s="8">
-        <v>11921</v>
+        <v>11923</v>
       </c>
       <c r="X131" s="8">
         <v>1588</v>
       </c>
       <c r="Y131" s="8">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Z131" s="8">
         <v>1612</v>
       </c>
       <c r="AA131" s="8">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB131" s="8">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AC131" s="8">
         <v>470</v>
       </c>
       <c r="AD131" s="8">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="AE131" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF131" s="8">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG131" s="8">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="AH131" s="8">
         <v>782</v>
@@ -24803,13 +24803,13 @@
         <v>182</v>
       </c>
       <c r="AM131" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AN131" s="8">
-        <v>31313</v>
+        <v>31311</v>
       </c>
       <c r="AO131" s="8">
-        <v>9368</v>
+        <v>9366</v>
       </c>
       <c r="AP131" s="8">
         <v>21945</v>
@@ -24827,34 +24827,34 @@
         <v>1033</v>
       </c>
       <c r="AU131" s="8">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AV131" s="8">
         <v>788</v>
       </c>
       <c r="AW131" s="8">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="AX131" s="8">
         <v>2228</v>
       </c>
       <c r="AY131" s="8">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AZ131" s="8">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="BA131" s="8">
         <v>910</v>
       </c>
       <c r="BB131" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BE131" s="8">
         <v>342</v>
       </c>
       <c r="BF131" s="8">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="1:58" x14ac:dyDescent="0.2">
@@ -24862,25 +24862,25 @@
         <v>42979</v>
       </c>
       <c r="B132" s="8">
-        <v>18487</v>
+        <v>18485</v>
       </c>
       <c r="C132" s="8">
         <v>7967</v>
       </c>
       <c r="D132" s="8">
-        <v>10520</v>
+        <v>10518</v>
       </c>
       <c r="E132" s="8">
         <v>639</v>
       </c>
       <c r="F132" s="8">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="G132" s="8">
         <v>79</v>
       </c>
       <c r="H132" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I132" s="8">
         <v>517</v>
@@ -24889,10 +24889,10 @@
         <v>369</v>
       </c>
       <c r="K132" s="8">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="L132" s="8">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="M132" s="8">
         <v>196</v>
@@ -24907,16 +24907,16 @@
         <v>89</v>
       </c>
       <c r="Q132" s="8">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R132" s="8">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="S132" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T132" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U132" s="8">
         <v>13263</v>
@@ -24925,112 +24925,112 @@
         <v>1369</v>
       </c>
       <c r="W132" s="8">
-        <v>11895</v>
+        <v>11894</v>
       </c>
       <c r="X132" s="8">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="Y132" s="8">
         <v>374</v>
       </c>
       <c r="Z132" s="8">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="AA132" s="8">
         <v>768</v>
       </c>
       <c r="AB132" s="8">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AC132" s="8">
         <v>441</v>
       </c>
       <c r="AD132" s="8">
-        <v>1581</v>
+        <v>1589</v>
       </c>
       <c r="AE132" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF132" s="8">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG132" s="8">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="AH132" s="8">
         <v>851</v>
       </c>
       <c r="AI132" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AJ132" s="8">
         <v>139</v>
       </c>
       <c r="AK132" s="8">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AL132" s="8">
         <v>138</v>
       </c>
       <c r="AM132" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AN132" s="8">
-        <v>31754</v>
+        <v>31753</v>
       </c>
       <c r="AO132" s="8">
-        <v>9335</v>
+        <v>9336</v>
       </c>
       <c r="AP132" s="8">
-        <v>22419</v>
+        <v>22417</v>
       </c>
       <c r="AQ132" s="8">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="AR132" s="8">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="AS132" s="8">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="AT132" s="8">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="AU132" s="8">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="AV132" s="8">
         <v>810</v>
       </c>
       <c r="AW132" s="8">
-        <v>2726</v>
+        <v>2732</v>
       </c>
       <c r="AX132" s="8">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="AY132" s="8">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AZ132" s="8">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="BA132" s="8">
         <v>1078</v>
       </c>
       <c r="BB132" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BC132" s="8">
         <v>632</v>
       </c>
       <c r="BD132" s="8">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="BE132" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BF132" s="8">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="133" spans="1:58" x14ac:dyDescent="0.2">
@@ -25038,13 +25038,13 @@
         <v>43070</v>
       </c>
       <c r="B133" s="8">
-        <v>18533</v>
+        <v>18542</v>
       </c>
       <c r="C133" s="8">
-        <v>7310</v>
+        <v>7313</v>
       </c>
       <c r="D133" s="8">
-        <v>11223</v>
+        <v>11229</v>
       </c>
       <c r="E133" s="8">
         <v>748</v>
@@ -25056,31 +25056,31 @@
         <v>116</v>
       </c>
       <c r="H133" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I133" s="8">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J133" s="8">
         <v>371</v>
       </c>
       <c r="K133" s="8">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="L133" s="8">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="M133" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N133" s="8">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="O133" s="8">
         <v>249</v>
       </c>
       <c r="P133" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q133" s="8">
         <v>538</v>
@@ -25089,7 +25089,7 @@
         <v>1040</v>
       </c>
       <c r="S133" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T133" s="8">
         <v>130</v>
@@ -25098,52 +25098,52 @@
         <v>13675</v>
       </c>
       <c r="V133" s="8">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="W133" s="8">
-        <v>11847</v>
+        <v>11844</v>
       </c>
       <c r="X133" s="8">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="Y133" s="8">
         <v>354</v>
       </c>
       <c r="Z133" s="8">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="AA133" s="8">
         <v>668</v>
       </c>
       <c r="AB133" s="8">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AC133" s="8">
         <v>460</v>
       </c>
       <c r="AD133" s="8">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="AE133" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF133" s="8">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AG133" s="8">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="AH133" s="8">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AI133" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AJ133" s="8">
         <v>211</v>
       </c>
       <c r="AK133" s="8">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AL133" s="8">
         <v>231</v>
@@ -25152,61 +25152,61 @@
         <v>333</v>
       </c>
       <c r="AN133" s="8">
-        <v>32213</v>
+        <v>32223</v>
       </c>
       <c r="AO133" s="8">
-        <v>9138</v>
+        <v>9144</v>
       </c>
       <c r="AP133" s="8">
-        <v>23076</v>
+        <v>23079</v>
       </c>
       <c r="AQ133" s="8">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="AR133" s="8">
         <v>2005</v>
       </c>
       <c r="AS133" s="8">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="AT133" s="8">
         <v>941</v>
       </c>
       <c r="AU133" s="8">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AV133" s="8">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AW133" s="8">
-        <v>2966</v>
+        <v>2974</v>
       </c>
       <c r="AX133" s="8">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="AY133" s="8">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="AZ133" s="8">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="BA133" s="8">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="BB133" s="8">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="BC133" s="8">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BD133" s="8">
         <v>1666</v>
       </c>
       <c r="BE133" s="8">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BF133" s="8">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="1:58" x14ac:dyDescent="0.2">
@@ -25214,43 +25214,43 @@
         <v>43160</v>
       </c>
       <c r="B134" s="8">
-        <v>18272</v>
+        <v>18261</v>
       </c>
       <c r="C134" s="8">
-        <v>7240</v>
+        <v>7236</v>
       </c>
       <c r="D134" s="8">
-        <v>11032</v>
+        <v>11026</v>
       </c>
       <c r="E134" s="8">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F134" s="8">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="G134" s="8">
         <v>79</v>
       </c>
       <c r="H134" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I134" s="8">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J134" s="8">
         <v>342</v>
       </c>
       <c r="K134" s="8">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="L134" s="8">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="M134" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N134" s="8">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="O134" s="8">
         <v>105</v>
@@ -25268,121 +25268,121 @@
         <v>200</v>
       </c>
       <c r="T134" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U134" s="8">
         <v>14245</v>
       </c>
       <c r="V134" s="8">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="W134" s="8">
-        <v>12419</v>
+        <v>12422</v>
       </c>
       <c r="X134" s="8">
-        <v>1760</v>
+        <v>1765</v>
       </c>
       <c r="Y134" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Z134" s="8">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="AA134" s="8">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AB134" s="8">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="AC134" s="8">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AD134" s="8">
-        <v>1841</v>
+        <v>1822</v>
       </c>
       <c r="AE134" s="8">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AF134" s="8">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="AG134" s="8">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="AH134" s="8">
         <v>773</v>
       </c>
       <c r="AI134" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AJ134" s="8">
         <v>222</v>
       </c>
       <c r="AK134" s="8">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AL134" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM134" s="8">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AN134" s="8">
-        <v>32474</v>
+        <v>32464</v>
       </c>
       <c r="AO134" s="8">
-        <v>9066</v>
+        <v>9058</v>
       </c>
       <c r="AP134" s="8">
-        <v>23408</v>
+        <v>23406</v>
       </c>
       <c r="AQ134" s="8">
-        <v>2361</v>
+        <v>2366</v>
       </c>
       <c r="AR134" s="8">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="AS134" s="8">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="AT134" s="8">
         <v>1025</v>
       </c>
       <c r="AU134" s="8">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="AV134" s="8">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AW134" s="8">
-        <v>3160</v>
+        <v>3139</v>
       </c>
       <c r="AX134" s="8">
-        <v>2119</v>
+        <v>2124</v>
       </c>
       <c r="AY134" s="8">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="AZ134" s="8">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="BA134" s="8">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="BB134" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="BC134" s="8">
         <v>748</v>
       </c>
       <c r="BD134" s="8">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="BE134" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BF134" s="8">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="135" spans="1:58" x14ac:dyDescent="0.2">
@@ -25393,16 +25393,16 @@
         <v>18258</v>
       </c>
       <c r="C135" s="8">
-        <v>6851</v>
+        <v>6849</v>
       </c>
       <c r="D135" s="8">
-        <v>11407</v>
+        <v>11409</v>
       </c>
       <c r="E135" s="8">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F135" s="8">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="G135" s="8">
         <v>72</v>
@@ -25411,7 +25411,7 @@
         <v>236</v>
       </c>
       <c r="I135" s="8">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J135" s="8">
         <v>657</v>
@@ -25420,22 +25420,22 @@
         <v>1337</v>
       </c>
       <c r="L135" s="8">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="M135" s="8">
         <v>255</v>
       </c>
       <c r="N135" s="8">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="O135" s="8">
         <v>139</v>
       </c>
       <c r="P135" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q135" s="8">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="R135" s="8">
         <v>1100</v>
@@ -25450,43 +25450,43 @@
         <v>14250</v>
       </c>
       <c r="V135" s="8">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="W135" s="8">
-        <v>12312</v>
+        <v>12315</v>
       </c>
       <c r="X135" s="8">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="Y135" s="8">
         <v>356</v>
       </c>
       <c r="Z135" s="8">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="AA135" s="8">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AB135" s="8">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AC135" s="8">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AD135" s="8">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="AE135" s="8">
         <v>358</v>
       </c>
       <c r="AF135" s="8">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AG135" s="8">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="AH135" s="8">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AI135" s="8">
         <v>200</v>
@@ -25495,64 +25495,64 @@
         <v>209</v>
       </c>
       <c r="AK135" s="8">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AL135" s="8">
         <v>157</v>
       </c>
       <c r="AM135" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN135" s="8">
-        <v>32537</v>
+        <v>32534</v>
       </c>
       <c r="AO135" s="8">
-        <v>8789</v>
+        <v>8784</v>
       </c>
       <c r="AP135" s="8">
-        <v>23748</v>
+        <v>23750</v>
       </c>
       <c r="AQ135" s="8">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="AR135" s="8">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="AS135" s="8">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="AT135" s="8">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AU135" s="8">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="AV135" s="8">
         <v>1164</v>
       </c>
       <c r="AW135" s="8">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="AX135" s="8">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="AY135" s="8">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AZ135" s="8">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="BA135" s="8">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="BB135" s="8">
         <v>259</v>
       </c>
       <c r="BC135" s="8">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="BD135" s="8">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="BE135" s="8">
         <v>311</v>
@@ -25566,40 +25566,40 @@
         <v>43344</v>
       </c>
       <c r="B136" s="8">
-        <v>17985</v>
+        <v>17986</v>
       </c>
       <c r="C136" s="8">
-        <v>6415</v>
+        <v>6417</v>
       </c>
       <c r="D136" s="8">
-        <v>11570</v>
+        <v>11569</v>
       </c>
       <c r="E136" s="8">
         <v>676</v>
       </c>
       <c r="F136" s="8">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="G136" s="8">
         <v>66</v>
       </c>
       <c r="H136" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I136" s="8">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J136" s="8">
         <v>453</v>
       </c>
       <c r="K136" s="8">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="L136" s="8">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="M136" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N136" s="8">
         <v>2097</v>
@@ -25611,13 +25611,13 @@
         <v>114</v>
       </c>
       <c r="Q136" s="8">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="R136" s="8">
         <v>1171</v>
       </c>
       <c r="S136" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T136" s="8">
         <v>64</v>
@@ -25626,115 +25626,115 @@
         <v>15002</v>
       </c>
       <c r="V136" s="8">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="W136" s="8">
-        <v>12960</v>
+        <v>12958</v>
       </c>
       <c r="X136" s="8">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="Y136" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Z136" s="8">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="AA136" s="8">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AB136" s="8">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="AC136" s="8">
         <v>493</v>
       </c>
       <c r="AD136" s="8">
-        <v>1795</v>
+        <v>1809</v>
       </c>
       <c r="AE136" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF136" s="8">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AG136" s="8">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="AH136" s="8">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AI136" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ136" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK136" s="8">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AL136" s="8">
         <v>161</v>
       </c>
       <c r="AM136" s="8">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AN136" s="8">
-        <v>32996</v>
+        <v>32997</v>
       </c>
       <c r="AO136" s="8">
-        <v>8457</v>
+        <v>8461</v>
       </c>
       <c r="AP136" s="8">
-        <v>24538</v>
+        <v>24536</v>
       </c>
       <c r="AQ136" s="8">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="AR136" s="8">
         <v>2392</v>
       </c>
       <c r="AS136" s="8">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="AT136" s="8">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="AU136" s="8">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="AV136" s="8">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AW136" s="8">
-        <v>3036</v>
+        <v>3047</v>
       </c>
       <c r="AX136" s="8">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="AY136" s="8">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="AZ136" s="8">
-        <v>3370</v>
+        <v>3368</v>
       </c>
       <c r="BA136" s="8">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="BB136" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BC136" s="8">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="BD136" s="8">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="BE136" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BF136" s="8">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:58" x14ac:dyDescent="0.2">
@@ -25742,43 +25742,43 @@
         <v>43435</v>
       </c>
       <c r="B137" s="8">
-        <v>18789</v>
+        <v>18802</v>
       </c>
       <c r="C137" s="8">
-        <v>6319</v>
+        <v>6323</v>
       </c>
       <c r="D137" s="8">
-        <v>12470</v>
+        <v>12479</v>
       </c>
       <c r="E137" s="8">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F137" s="8">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G137" s="8">
         <v>85</v>
       </c>
       <c r="H137" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I137" s="8">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J137" s="8">
         <v>438</v>
       </c>
       <c r="K137" s="8">
-        <v>1841</v>
+        <v>1850</v>
       </c>
       <c r="L137" s="8">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="M137" s="8">
         <v>340</v>
       </c>
       <c r="N137" s="8">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="O137" s="8">
         <v>275</v>
@@ -25787,13 +25787,13 @@
         <v>50</v>
       </c>
       <c r="Q137" s="8">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="R137" s="8">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="S137" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T137" s="8">
         <v>107</v>
@@ -25802,52 +25802,52 @@
         <v>14937</v>
       </c>
       <c r="V137" s="8">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="W137" s="8">
-        <v>12916</v>
+        <v>12908</v>
       </c>
       <c r="X137" s="8">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="Y137" s="8">
         <v>302</v>
       </c>
       <c r="Z137" s="8">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="AA137" s="8">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AB137" s="8">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="AC137" s="8">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AD137" s="8">
-        <v>1743</v>
+        <v>1752</v>
       </c>
       <c r="AE137" s="8">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AF137" s="8">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="AG137" s="8">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="AH137" s="8">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AI137" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AJ137" s="8">
         <v>221</v>
       </c>
       <c r="AK137" s="8">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AL137" s="8">
         <v>190</v>
@@ -25856,61 +25856,61 @@
         <v>444</v>
       </c>
       <c r="AN137" s="8">
-        <v>33742</v>
+        <v>33756</v>
       </c>
       <c r="AO137" s="8">
-        <v>8340</v>
+        <v>8352</v>
       </c>
       <c r="AP137" s="8">
-        <v>25402</v>
+        <v>25404</v>
       </c>
       <c r="AQ137" s="8">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="AR137" s="8">
         <v>2452</v>
       </c>
       <c r="AS137" s="8">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="AT137" s="8">
         <v>1193</v>
       </c>
       <c r="AU137" s="8">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="AV137" s="8">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AW137" s="8">
-        <v>3584</v>
+        <v>3602</v>
       </c>
       <c r="AX137" s="8">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="AY137" s="8">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="AZ137" s="8">
         <v>3418</v>
       </c>
       <c r="BA137" s="8">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="BB137" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="BC137" s="8">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="BD137" s="8">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="BE137" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BF137" s="8">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="138" spans="1:58" x14ac:dyDescent="0.2">
@@ -25918,43 +25918,43 @@
         <v>43525</v>
       </c>
       <c r="B138" s="8">
-        <v>18367</v>
+        <v>18354</v>
       </c>
       <c r="C138" s="8">
-        <v>5984</v>
+        <v>5976</v>
       </c>
       <c r="D138" s="8">
-        <v>12383</v>
+        <v>12378</v>
       </c>
       <c r="E138" s="8">
         <v>547</v>
       </c>
       <c r="F138" s="8">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="G138" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H138" s="8">
         <v>238</v>
       </c>
       <c r="I138" s="8">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="J138" s="8">
         <v>531</v>
       </c>
       <c r="K138" s="8">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="L138" s="8">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="M138" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N138" s="8">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="O138" s="8">
         <v>270</v>
@@ -25966,127 +25966,127 @@
         <v>671</v>
       </c>
       <c r="R138" s="8">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="S138" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T138" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="U138" s="8">
         <v>15198</v>
       </c>
       <c r="V138" s="8">
-        <v>2173</v>
+        <v>2162</v>
       </c>
       <c r="W138" s="8">
-        <v>13025</v>
+        <v>13036</v>
       </c>
       <c r="X138" s="8">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="Y138" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Z138" s="8">
-        <v>1627</v>
+        <v>1636</v>
       </c>
       <c r="AA138" s="8">
         <v>952</v>
       </c>
       <c r="AB138" s="8">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="AC138" s="8">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AD138" s="8">
-        <v>1705</v>
+        <v>1676</v>
       </c>
       <c r="AE138" s="8">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="AF138" s="8">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="AG138" s="8">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="AH138" s="8">
         <v>808</v>
       </c>
       <c r="AI138" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AJ138" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK138" s="8">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="AL138" s="8">
         <v>144</v>
       </c>
       <c r="AM138" s="8">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AN138" s="8">
-        <v>33509</v>
+        <v>33498</v>
       </c>
       <c r="AO138" s="8">
-        <v>8157</v>
+        <v>8138</v>
       </c>
       <c r="AP138" s="8">
-        <v>25352</v>
+        <v>25360</v>
       </c>
       <c r="AQ138" s="8">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="AR138" s="8">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="AS138" s="8">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="AT138" s="8">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AU138" s="8">
-        <v>1630</v>
+        <v>1643</v>
       </c>
       <c r="AV138" s="8">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="AW138" s="8">
-        <v>3579</v>
+        <v>3544</v>
       </c>
       <c r="AX138" s="8">
-        <v>1549</v>
+        <v>1559</v>
       </c>
       <c r="AY138" s="8">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="AZ138" s="8">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="BA138" s="8">
         <v>1078</v>
       </c>
       <c r="BB138" s="8">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="BC138" s="8">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="BD138" s="8">
-        <v>2105</v>
+        <v>2111</v>
       </c>
       <c r="BE138" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BF138" s="8">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" spans="1:58" x14ac:dyDescent="0.2">
@@ -26097,19 +26097,19 @@
         <v>17746</v>
       </c>
       <c r="C139" s="8">
-        <v>6000</v>
+        <v>5999</v>
       </c>
       <c r="D139" s="8">
-        <v>11746</v>
+        <v>11747</v>
       </c>
       <c r="E139" s="8">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F139" s="8">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="G139" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H139" s="8">
         <v>183</v>
@@ -26121,22 +26121,22 @@
         <v>549</v>
       </c>
       <c r="K139" s="8">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="L139" s="8">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="M139" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N139" s="8">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="O139" s="8">
         <v>143</v>
       </c>
       <c r="P139" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q139" s="8">
         <v>619</v>
@@ -26154,13 +26154,13 @@
         <v>15601</v>
       </c>
       <c r="V139" s="8">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="W139" s="8">
-        <v>13246</v>
+        <v>13252</v>
       </c>
       <c r="X139" s="8">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="Y139" s="8">
         <v>302</v>
@@ -26172,28 +26172,28 @@
         <v>881</v>
       </c>
       <c r="AB139" s="8">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AC139" s="8">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AD139" s="8">
         <v>1751</v>
       </c>
       <c r="AE139" s="8">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AF139" s="8">
         <v>853</v>
       </c>
       <c r="AG139" s="8">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="AH139" s="8">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="AI139" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AJ139" s="8">
         <v>204</v>
@@ -26205,55 +26205,55 @@
         <v>269</v>
       </c>
       <c r="AM139" s="8">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AN139" s="8">
-        <v>33376</v>
+        <v>33372</v>
       </c>
       <c r="AO139" s="8">
-        <v>8355</v>
+        <v>8349</v>
       </c>
       <c r="AP139" s="8">
-        <v>25020</v>
+        <v>25023</v>
       </c>
       <c r="AQ139" s="8">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="AR139" s="8">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="AS139" s="8">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="AT139" s="8">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AU139" s="8">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="AV139" s="8">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="AW139" s="8">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="AX139" s="8">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="AY139" s="8">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AZ139" s="8">
-        <v>3676</v>
+        <v>3681</v>
       </c>
       <c r="BA139" s="8">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="BB139" s="8">
         <v>402</v>
       </c>
       <c r="BC139" s="8">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="BD139" s="8">
         <v>2053</v>
@@ -26262,7 +26262,7 @@
         <v>476</v>
       </c>
       <c r="BF139" s="8">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="140" spans="1:58" x14ac:dyDescent="0.2">
@@ -26270,175 +26270,175 @@
         <v>43709</v>
       </c>
       <c r="B140" s="8">
-        <v>18031</v>
+        <v>18028</v>
       </c>
       <c r="C140" s="8">
-        <v>6062</v>
+        <v>6066</v>
       </c>
       <c r="D140" s="8">
-        <v>11969</v>
+        <v>11962</v>
       </c>
       <c r="E140" s="8">
         <v>665</v>
       </c>
       <c r="F140" s="8">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="G140" s="8">
         <v>91</v>
       </c>
       <c r="H140" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I140" s="8">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J140" s="8">
         <v>511</v>
       </c>
       <c r="K140" s="8">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="L140" s="8">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="M140" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N140" s="8">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="O140" s="8">
         <v>83</v>
       </c>
       <c r="P140" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q140" s="8">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="R140" s="8">
         <v>1038</v>
       </c>
       <c r="S140" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T140" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U140" s="8">
         <v>14996</v>
       </c>
       <c r="V140" s="8">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="W140" s="8">
-        <v>12322</v>
+        <v>12318</v>
       </c>
       <c r="X140" s="8">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="Y140" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z140" s="8">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="AA140" s="8">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AB140" s="8">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="AC140" s="8">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AD140" s="8">
-        <v>1558</v>
+        <v>1572</v>
       </c>
       <c r="AE140" s="8">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF140" s="8">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AG140" s="8">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="AH140" s="8">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AI140" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ140" s="8">
         <v>198</v>
       </c>
       <c r="AK140" s="8">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="AL140" s="8">
         <v>217</v>
       </c>
       <c r="AM140" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AN140" s="8">
-        <v>33034</v>
+        <v>33031</v>
       </c>
       <c r="AO140" s="8">
-        <v>8737</v>
+        <v>8745</v>
       </c>
       <c r="AP140" s="8">
-        <v>24297</v>
+        <v>24287</v>
       </c>
       <c r="AQ140" s="8">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="AR140" s="8">
         <v>2502</v>
       </c>
       <c r="AS140" s="8">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="AT140" s="8">
+        <v>968</v>
+      </c>
+      <c r="AU140" s="8">
+        <v>1376</v>
+      </c>
+      <c r="AV140" s="8">
+        <v>1065</v>
+      </c>
+      <c r="AW140" s="8">
+        <v>3218</v>
+      </c>
+      <c r="AX140" s="8">
+        <v>1686</v>
+      </c>
+      <c r="AY140" s="8">
         <v>967</v>
       </c>
-      <c r="AU140" s="8">
-        <v>1382</v>
-      </c>
-      <c r="AV140" s="8">
-        <v>1064</v>
-      </c>
-      <c r="AW140" s="8">
-        <v>3209</v>
-      </c>
-      <c r="AX140" s="8">
-        <v>1679</v>
-      </c>
-      <c r="AY140" s="8">
-        <v>964</v>
-      </c>
       <c r="AZ140" s="8">
-        <v>3934</v>
+        <v>3930</v>
       </c>
       <c r="BA140" s="8">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BB140" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="BC140" s="8">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="BD140" s="8">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="BE140" s="8">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="BF140" s="8">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:58" x14ac:dyDescent="0.2">
@@ -26446,58 +26446,58 @@
         <v>43800</v>
       </c>
       <c r="B141" s="8">
-        <v>17303</v>
+        <v>17325</v>
       </c>
       <c r="C141" s="8">
-        <v>5923</v>
+        <v>5930</v>
       </c>
       <c r="D141" s="8">
-        <v>11380</v>
+        <v>11396</v>
       </c>
       <c r="E141" s="8">
         <v>551</v>
       </c>
       <c r="F141" s="8">
-        <v>2270</v>
+        <v>2275</v>
       </c>
       <c r="G141" s="8">
         <v>59</v>
       </c>
       <c r="H141" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I141" s="8">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J141" s="8">
         <v>343</v>
       </c>
       <c r="K141" s="8">
-        <v>1512</v>
+        <v>1521</v>
       </c>
       <c r="L141" s="8">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="M141" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N141" s="8">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="O141" s="8">
         <v>133</v>
       </c>
       <c r="P141" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q141" s="8">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="R141" s="8">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="S141" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T141" s="8">
         <v>72</v>
@@ -26506,115 +26506,115 @@
         <v>15238</v>
       </c>
       <c r="V141" s="8">
-        <v>2674</v>
+        <v>2691</v>
       </c>
       <c r="W141" s="8">
-        <v>12564</v>
+        <v>12546</v>
       </c>
       <c r="X141" s="8">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="Y141" s="8">
         <v>316</v>
       </c>
       <c r="Z141" s="8">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="AA141" s="8">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AB141" s="8">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="AC141" s="8">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AD141" s="8">
-        <v>1967</v>
+        <v>1981</v>
       </c>
       <c r="AE141" s="8">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="AF141" s="8">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="AG141" s="8">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="AH141" s="8">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="AI141" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AJ141" s="8">
         <v>236</v>
       </c>
       <c r="AK141" s="8">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="AL141" s="8">
         <v>181</v>
       </c>
       <c r="AM141" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN141" s="8">
-        <v>32555</v>
+        <v>32577</v>
       </c>
       <c r="AO141" s="8">
-        <v>8597</v>
+        <v>8621</v>
       </c>
       <c r="AP141" s="8">
-        <v>23958</v>
+        <v>23957</v>
       </c>
       <c r="AQ141" s="8">
-        <v>2346</v>
+        <v>2341</v>
       </c>
       <c r="AR141" s="8">
-        <v>2586</v>
+        <v>2591</v>
       </c>
       <c r="AS141" s="8">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="AT141" s="8">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AU141" s="8">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="AV141" s="8">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AW141" s="8">
-        <v>3479</v>
+        <v>3501</v>
       </c>
       <c r="AX141" s="8">
-        <v>1593</v>
+        <v>1579</v>
       </c>
       <c r="AY141" s="8">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="AZ141" s="8">
         <v>3489</v>
       </c>
       <c r="BA141" s="8">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="BB141" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="BC141" s="8">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="BD141" s="8">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="BE141" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="BF141" s="8">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:58" x14ac:dyDescent="0.2">
@@ -26622,19 +26622,19 @@
         <v>43891</v>
       </c>
       <c r="B142" s="8">
-        <v>17102</v>
+        <v>17078</v>
       </c>
       <c r="C142" s="8">
-        <v>6229</v>
+        <v>6217</v>
       </c>
       <c r="D142" s="8">
-        <v>10874</v>
+        <v>10861</v>
       </c>
       <c r="E142" s="8">
         <v>622</v>
       </c>
       <c r="F142" s="8">
-        <v>2152</v>
+        <v>2143</v>
       </c>
       <c r="G142" s="8">
         <v>49</v>
@@ -26643,22 +26643,22 @@
         <v>198</v>
       </c>
       <c r="I142" s="8">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="J142" s="8">
         <v>270</v>
       </c>
       <c r="K142" s="8">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="L142" s="8">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="M142" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N142" s="8">
-        <v>2142</v>
+        <v>2147</v>
       </c>
       <c r="O142" s="8">
         <v>136</v>
@@ -26667,130 +26667,130 @@
         <v>22</v>
       </c>
       <c r="Q142" s="8">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="R142" s="8">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="S142" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T142" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U142" s="8">
         <v>14996</v>
       </c>
       <c r="V142" s="8">
-        <v>2736</v>
+        <v>2712</v>
       </c>
       <c r="W142" s="8">
-        <v>12260</v>
+        <v>12284</v>
       </c>
       <c r="X142" s="8">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="Y142" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Z142" s="8">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="AA142" s="8">
+        <v>833</v>
+      </c>
+      <c r="AB142" s="8">
         <v>834</v>
       </c>
-      <c r="AB142" s="8">
-        <v>825</v>
-      </c>
       <c r="AC142" s="8">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AD142" s="8">
-        <v>2084</v>
+        <v>2038</v>
       </c>
       <c r="AE142" s="8">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="AF142" s="8">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="AG142" s="8">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="AH142" s="8">
         <v>787</v>
       </c>
       <c r="AI142" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AJ142" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK142" s="8">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="AL142" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM142" s="8">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AN142" s="8">
-        <v>32042</v>
+        <v>32020</v>
       </c>
       <c r="AO142" s="8">
-        <v>8965</v>
+        <v>8928</v>
       </c>
       <c r="AP142" s="8">
-        <v>23078</v>
+        <v>23092</v>
       </c>
       <c r="AQ142" s="8">
-        <v>2432</v>
+        <v>2442</v>
       </c>
       <c r="AR142" s="8">
-        <v>2482</v>
+        <v>2476</v>
       </c>
       <c r="AS142" s="8">
-        <v>1175</v>
+        <v>1184</v>
       </c>
       <c r="AT142" s="8">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AU142" s="8">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="AV142" s="8">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AW142" s="8">
-        <v>3382</v>
+        <v>3331</v>
       </c>
       <c r="AX142" s="8">
-        <v>1821</v>
+        <v>1838</v>
       </c>
       <c r="AY142" s="8">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="AZ142" s="8">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="BA142" s="8">
         <v>923</v>
       </c>
       <c r="BB142" s="8">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="BC142" s="8">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="BD142" s="8">
-        <v>1871</v>
+        <v>1881</v>
       </c>
       <c r="BE142" s="8">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="BF142" s="8">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="143" spans="1:58" x14ac:dyDescent="0.2">
@@ -26798,25 +26798,25 @@
         <v>43983</v>
       </c>
       <c r="B143" s="8">
-        <v>16101</v>
+        <v>16098</v>
       </c>
       <c r="C143" s="8">
-        <v>6257</v>
+        <v>6255</v>
       </c>
       <c r="D143" s="8">
-        <v>9844</v>
+        <v>9843</v>
       </c>
       <c r="E143" s="8">
         <v>589</v>
       </c>
       <c r="F143" s="8">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="G143" s="8">
         <v>54</v>
       </c>
       <c r="H143" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I143" s="8">
         <v>359</v>
@@ -26825,13 +26825,13 @@
         <v>188</v>
       </c>
       <c r="K143" s="8">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="L143" s="8">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M143" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N143" s="8">
         <v>1870</v>
@@ -26843,10 +26843,10 @@
         <v>26</v>
       </c>
       <c r="Q143" s="8">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="R143" s="8">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="S143" s="8">
         <v>89</v>
@@ -26858,46 +26858,46 @@
         <v>14026</v>
       </c>
       <c r="V143" s="8">
-        <v>2611</v>
+        <v>2604</v>
       </c>
       <c r="W143" s="8">
-        <v>11415</v>
+        <v>11423</v>
       </c>
       <c r="X143" s="8">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="Y143" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z143" s="8">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="AA143" s="8">
         <v>755</v>
       </c>
       <c r="AB143" s="8">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="AC143" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AD143" s="8">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="AE143" s="8">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF143" s="8">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AG143" s="8">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="AH143" s="8">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="AI143" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ143" s="8">
         <v>170</v>
@@ -26909,64 +26909,64 @@
         <v>64</v>
       </c>
       <c r="AM143" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AN143" s="8">
-        <v>30155</v>
+        <v>30148</v>
       </c>
       <c r="AO143" s="8">
-        <v>8868</v>
+        <v>8859</v>
       </c>
       <c r="AP143" s="8">
-        <v>21287</v>
+        <v>21289</v>
       </c>
       <c r="AQ143" s="8">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="AR143" s="8">
         <v>2109</v>
       </c>
       <c r="AS143" s="8">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="AT143" s="8">
         <v>969</v>
       </c>
       <c r="AU143" s="8">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AV143" s="8">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AW143" s="8">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="AX143" s="8">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="AY143" s="8">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AZ143" s="8">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="BA143" s="8">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="BB143" s="8">
         <v>217</v>
       </c>
       <c r="BC143" s="8">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="BD143" s="8">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="BE143" s="8">
         <v>152</v>
       </c>
       <c r="BF143" s="8">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="144" spans="1:58" x14ac:dyDescent="0.2">
@@ -26974,43 +26974,43 @@
         <v>44075</v>
       </c>
       <c r="B144" s="8">
-        <v>15613</v>
+        <v>15612</v>
       </c>
       <c r="C144" s="8">
-        <v>6076</v>
+        <v>6081</v>
       </c>
       <c r="D144" s="8">
-        <v>9538</v>
+        <v>9532</v>
       </c>
       <c r="E144" s="8">
         <v>602</v>
       </c>
       <c r="F144" s="8">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="G144" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H144" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I144" s="8">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J144" s="8">
         <v>178</v>
       </c>
       <c r="K144" s="8">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="L144" s="8">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="M144" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N144" s="8">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="O144" s="8">
         <v>118</v>
@@ -27019,130 +27019,130 @@
         <v>34</v>
       </c>
       <c r="Q144" s="8">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="R144" s="8">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="S144" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T144" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U144" s="8">
         <v>13609</v>
       </c>
       <c r="V144" s="8">
-        <v>2654</v>
+        <v>2661</v>
       </c>
       <c r="W144" s="8">
-        <v>10954</v>
+        <v>10948</v>
       </c>
       <c r="X144" s="8">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="Y144" s="8">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Z144" s="8">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="AA144" s="8">
         <v>822</v>
       </c>
       <c r="AB144" s="8">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="AC144" s="8">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AD144" s="8">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="AE144" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AF144" s="8">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG144" s="8">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AH144" s="8">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="AI144" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AJ144" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AK144" s="8">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="AL144" s="8">
         <v>75</v>
       </c>
       <c r="AM144" s="8">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AN144" s="8">
         <v>29232</v>
       </c>
       <c r="AO144" s="8">
-        <v>8730</v>
+        <v>8741</v>
       </c>
       <c r="AP144" s="8">
-        <v>20502</v>
+        <v>20490</v>
       </c>
       <c r="AQ144" s="8">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="AR144" s="8">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="AS144" s="8">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="AT144" s="8">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="AU144" s="8">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="AV144" s="8">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AW144" s="8">
-        <v>2310</v>
+        <v>2317</v>
       </c>
       <c r="AX144" s="8">
-        <v>1448</v>
+        <v>1458</v>
       </c>
       <c r="AY144" s="8">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AZ144" s="8">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="BA144" s="8">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="BB144" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="BC144" s="8">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="BD144" s="8">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="BE144" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BF144" s="8">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="1:58" x14ac:dyDescent="0.2">
@@ -27150,175 +27150,175 @@
         <v>44166</v>
       </c>
       <c r="B145" s="8">
-        <v>15838</v>
+        <v>15868</v>
       </c>
       <c r="C145" s="8">
-        <v>6139</v>
+        <v>6149</v>
       </c>
       <c r="D145" s="8">
-        <v>9699</v>
+        <v>9719</v>
       </c>
       <c r="E145" s="8">
         <v>601</v>
       </c>
       <c r="F145" s="8">
-        <v>1893</v>
+        <v>1901</v>
       </c>
       <c r="G145" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H145" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I145" s="8">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J145" s="8">
         <v>271</v>
       </c>
       <c r="K145" s="8">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="L145" s="8">
-        <v>1203</v>
+        <v>1210</v>
       </c>
       <c r="M145" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N145" s="8">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="O145" s="8">
         <v>161</v>
       </c>
       <c r="P145" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q145" s="8">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="R145" s="8">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="S145" s="8">
         <v>77</v>
       </c>
       <c r="T145" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U145" s="8">
         <v>14612</v>
       </c>
       <c r="V145" s="8">
-        <v>2505</v>
+        <v>2528</v>
       </c>
       <c r="W145" s="8">
-        <v>12108</v>
+        <v>12084</v>
       </c>
       <c r="X145" s="8">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="Y145" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z145" s="8">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="AA145" s="8">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="AB145" s="8">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="AC145" s="8">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AD145" s="8">
-        <v>1590</v>
+        <v>1607</v>
       </c>
       <c r="AE145" s="8">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="AF145" s="8">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="AG145" s="8">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="AH145" s="8">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="AI145" s="8">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AJ145" s="8">
         <v>195</v>
       </c>
       <c r="AK145" s="8">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="AL145" s="8">
         <v>80</v>
       </c>
       <c r="AM145" s="8">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AN145" s="8">
-        <v>30468</v>
+        <v>30497</v>
       </c>
       <c r="AO145" s="8">
-        <v>8643</v>
+        <v>8677</v>
       </c>
       <c r="AP145" s="8">
-        <v>21824</v>
+        <v>21820</v>
       </c>
       <c r="AQ145" s="8">
-        <v>2438</v>
+        <v>2432</v>
       </c>
       <c r="AR145" s="8">
-        <v>2143</v>
+        <v>2152</v>
       </c>
       <c r="AS145" s="8">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="AT145" s="8">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="AU145" s="8">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="AV145" s="8">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="AW145" s="8">
-        <v>2749</v>
+        <v>2774</v>
       </c>
       <c r="AX145" s="8">
-        <v>1547</v>
+        <v>1533</v>
       </c>
       <c r="AY145" s="8">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="AZ145" s="8">
         <v>2683</v>
       </c>
       <c r="BA145" s="8">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="BB145" s="8">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="BC145" s="8">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="BD145" s="8">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="BE145" s="8">
         <v>157</v>
       </c>
       <c r="BF145" s="8">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="146" spans="1:58" x14ac:dyDescent="0.2">
@@ -27326,43 +27326,43 @@
         <v>44256</v>
       </c>
       <c r="B146" s="8">
-        <v>16509</v>
+        <v>16480</v>
       </c>
       <c r="C146" s="8">
-        <v>6362</v>
+        <v>6345</v>
       </c>
       <c r="D146" s="8">
-        <v>10147</v>
+        <v>10136</v>
       </c>
       <c r="E146" s="8">
         <v>741</v>
       </c>
       <c r="F146" s="8">
-        <v>1953</v>
+        <v>1940</v>
       </c>
       <c r="G146" s="8">
         <v>75</v>
       </c>
       <c r="H146" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I146" s="8">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="J146" s="8">
         <v>252</v>
       </c>
       <c r="K146" s="8">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="L146" s="8">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="M146" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N146" s="8">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="O146" s="8">
         <v>167</v>
@@ -27371,130 +27371,130 @@
         <v>109</v>
       </c>
       <c r="Q146" s="8">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="R146" s="8">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="S146" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T146" s="8">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="U146" s="8">
         <v>15749</v>
       </c>
       <c r="V146" s="8">
-        <v>2679</v>
+        <v>2644</v>
       </c>
       <c r="W146" s="8">
-        <v>13071</v>
+        <v>13106</v>
       </c>
       <c r="X146" s="8">
-        <v>2075</v>
+        <v>2087</v>
       </c>
       <c r="Y146" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Z146" s="8">
-        <v>1762</v>
+        <v>1781</v>
       </c>
       <c r="AA146" s="8">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="AB146" s="8">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="AC146" s="8">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="AD146" s="8">
-        <v>1602</v>
+        <v>1556</v>
       </c>
       <c r="AE146" s="8">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="AF146" s="8">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="AG146" s="8">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="AH146" s="8">
         <v>839</v>
       </c>
       <c r="AI146" s="8">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AJ146" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK146" s="8">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="AL146" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM146" s="8">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="AN146" s="8">
-        <v>32204</v>
+        <v>32179</v>
       </c>
       <c r="AO146" s="8">
-        <v>9041</v>
+        <v>8989</v>
       </c>
       <c r="AP146" s="8">
-        <v>23163</v>
+        <v>23190</v>
       </c>
       <c r="AQ146" s="8">
-        <v>2815</v>
+        <v>2828</v>
       </c>
       <c r="AR146" s="8">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="AS146" s="8">
-        <v>1837</v>
+        <v>1856</v>
       </c>
       <c r="AT146" s="8">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="AU146" s="8">
-        <v>1615</v>
+        <v>1644</v>
       </c>
       <c r="AV146" s="8">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="AW146" s="8">
-        <v>2915</v>
+        <v>2862</v>
       </c>
       <c r="AX146" s="8">
-        <v>1535</v>
+        <v>1542</v>
       </c>
       <c r="AY146" s="8">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="AZ146" s="8">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="BA146" s="8">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="BB146" s="8">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="BC146" s="8">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="BD146" s="8">
-        <v>1561</v>
+        <v>1574</v>
       </c>
       <c r="BE146" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BF146" s="8">
-        <v>577</v>
+        <v>602</v>
       </c>
     </row>
     <row r="147" spans="1:58" x14ac:dyDescent="0.2">
@@ -27502,49 +27502,49 @@
         <v>44348</v>
       </c>
       <c r="B147" s="8">
-        <v>17326</v>
+        <v>17320</v>
       </c>
       <c r="C147" s="8">
-        <v>6474</v>
+        <v>6473</v>
       </c>
       <c r="D147" s="8">
-        <v>10852</v>
+        <v>10847</v>
       </c>
       <c r="E147" s="8">
         <v>723</v>
       </c>
       <c r="F147" s="8">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="G147" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H147" s="8">
         <v>266</v>
       </c>
       <c r="I147" s="8">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J147" s="8">
         <v>255</v>
       </c>
       <c r="K147" s="8">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="L147" s="8">
         <v>1399</v>
       </c>
       <c r="M147" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N147" s="8">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="O147" s="8">
         <v>107</v>
       </c>
       <c r="P147" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q147" s="8">
         <v>629</v>
@@ -27562,73 +27562,73 @@
         <v>16306</v>
       </c>
       <c r="V147" s="8">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="W147" s="8">
-        <v>13707</v>
+        <v>13716</v>
       </c>
       <c r="X147" s="8">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="Y147" s="8">
         <v>334</v>
       </c>
       <c r="Z147" s="8">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="AA147" s="8">
         <v>918</v>
       </c>
       <c r="AB147" s="8">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AC147" s="8">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AD147" s="8">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="AE147" s="8">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AF147" s="8">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AG147" s="8">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="AH147" s="8">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="AI147" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AJ147" s="8">
         <v>255</v>
       </c>
       <c r="AK147" s="8">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AL147" s="8">
         <v>126</v>
       </c>
       <c r="AM147" s="8">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="AN147" s="8">
-        <v>33662</v>
+        <v>33651</v>
       </c>
       <c r="AO147" s="8">
-        <v>9072</v>
+        <v>9063</v>
       </c>
       <c r="AP147" s="8">
-        <v>24590</v>
+        <v>24588</v>
       </c>
       <c r="AQ147" s="8">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="AR147" s="8">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="AS147" s="8">
         <v>1862</v>
@@ -27637,40 +27637,40 @@
         <v>1184</v>
       </c>
       <c r="AU147" s="8">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="AV147" s="8">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="AW147" s="8">
-        <v>3148</v>
+        <v>3153</v>
       </c>
       <c r="AX147" s="8">
-        <v>1790</v>
+        <v>1783</v>
       </c>
       <c r="AY147" s="8">
         <v>902</v>
       </c>
       <c r="AZ147" s="8">
-        <v>3180</v>
+        <v>3185</v>
       </c>
       <c r="BA147" s="8">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="BB147" s="8">
         <v>388</v>
       </c>
       <c r="BC147" s="8">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="BD147" s="8">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="BE147" s="8">
         <v>214</v>
       </c>
       <c r="BF147" s="8">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="148" spans="1:58" x14ac:dyDescent="0.2">
@@ -27678,13 +27678,13 @@
         <v>44440</v>
       </c>
       <c r="B148" s="8">
-        <v>17796</v>
+        <v>17795</v>
       </c>
       <c r="C148" s="8">
-        <v>6970</v>
+        <v>6975</v>
       </c>
       <c r="D148" s="8">
-        <v>10827</v>
+        <v>10820</v>
       </c>
       <c r="E148" s="8">
         <v>633</v>
@@ -27696,25 +27696,25 @@
         <v>23</v>
       </c>
       <c r="H148" s="8">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I148" s="8">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J148" s="8">
         <v>267</v>
       </c>
       <c r="K148" s="8">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="L148" s="8">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="M148" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N148" s="8">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="O148" s="8">
         <v>103</v>
@@ -27723,130 +27723,130 @@
         <v>46</v>
       </c>
       <c r="Q148" s="8">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="R148" s="8">
         <v>906</v>
       </c>
       <c r="S148" s="8">
+        <v>105</v>
+      </c>
+      <c r="T148" s="8">
         <v>107</v>
-      </c>
-      <c r="T148" s="8">
-        <v>109</v>
       </c>
       <c r="U148" s="8">
         <v>16005</v>
       </c>
       <c r="V148" s="8">
-        <v>2584</v>
+        <v>2593</v>
       </c>
       <c r="W148" s="8">
-        <v>13421</v>
+        <v>13412</v>
       </c>
       <c r="X148" s="8">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="Y148" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Z148" s="8">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="AA148" s="8">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AB148" s="8">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="AC148" s="8">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AD148" s="8">
-        <v>1749</v>
+        <v>1768</v>
       </c>
       <c r="AE148" s="8">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AF148" s="8">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG148" s="8">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="AH148" s="8">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AI148" s="8">
         <v>291</v>
       </c>
       <c r="AJ148" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK148" s="8">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="AL148" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM148" s="8">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AN148" s="8">
         <v>33806</v>
       </c>
       <c r="AO148" s="8">
-        <v>9554</v>
+        <v>9568</v>
       </c>
       <c r="AP148" s="8">
-        <v>24252</v>
+        <v>24238</v>
       </c>
       <c r="AQ148" s="8">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="AR148" s="8">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="AS148" s="8">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="AT148" s="8">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="AU148" s="8">
-        <v>1578</v>
+        <v>1565</v>
       </c>
       <c r="AV148" s="8">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="AW148" s="8">
-        <v>3222</v>
+        <v>3234</v>
       </c>
       <c r="AX148" s="8">
-        <v>1752</v>
+        <v>1768</v>
       </c>
       <c r="AY148" s="8">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="AZ148" s="8">
-        <v>3116</v>
+        <v>3110</v>
       </c>
       <c r="BA148" s="8">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="BB148" s="8">
         <v>337</v>
       </c>
       <c r="BC148" s="8">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="BD148" s="8">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="BE148" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BF148" s="8">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="149" spans="1:58" x14ac:dyDescent="0.2">
@@ -27854,175 +27854,351 @@
         <v>44531</v>
       </c>
       <c r="B149" s="8">
-        <v>18507</v>
+        <v>18781</v>
       </c>
       <c r="C149" s="8">
-        <v>7417</v>
+        <v>7645</v>
       </c>
       <c r="D149" s="8">
-        <v>11090</v>
+        <v>11136</v>
       </c>
       <c r="E149" s="8">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="F149" s="8">
-        <v>2057</v>
+        <v>2046</v>
       </c>
       <c r="G149" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H149" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I149" s="8">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="J149" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K149" s="8">
-        <v>1422</v>
+        <v>1405</v>
       </c>
       <c r="L149" s="8">
-        <v>1556</v>
+        <v>1603</v>
       </c>
       <c r="M149" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N149" s="8">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="O149" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P149" s="8">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="Q149" s="8">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="R149" s="8">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="S149" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="T149" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="U149" s="8">
-        <v>16239</v>
+        <v>16379</v>
       </c>
       <c r="V149" s="8">
-        <v>2586</v>
+        <v>2716</v>
       </c>
       <c r="W149" s="8">
-        <v>13653</v>
+        <v>13663</v>
       </c>
       <c r="X149" s="8">
-        <v>2025</v>
+        <v>2066</v>
       </c>
       <c r="Y149" s="8">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="Z149" s="8">
-        <v>1829</v>
+        <v>1814</v>
       </c>
       <c r="AA149" s="8">
         <v>961</v>
       </c>
       <c r="AB149" s="8">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="AC149" s="8">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="AD149" s="8">
-        <v>1763</v>
+        <v>1794</v>
       </c>
       <c r="AE149" s="8">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="AF149" s="8">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AG149" s="8">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="AH149" s="8">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="AI149" s="8">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="AJ149" s="8">
         <v>263</v>
       </c>
       <c r="AK149" s="8">
-        <v>898</v>
+        <v>855</v>
       </c>
       <c r="AL149" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM149" s="8">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="AN149" s="8">
-        <v>34767</v>
+        <v>35180</v>
       </c>
       <c r="AO149" s="8">
-        <v>10003</v>
+        <v>10361</v>
       </c>
       <c r="AP149" s="8">
-        <v>24764</v>
+        <v>24820</v>
       </c>
       <c r="AQ149" s="8">
-        <v>2715</v>
+        <v>2765</v>
       </c>
       <c r="AR149" s="8">
-        <v>2386</v>
+        <v>2358</v>
       </c>
       <c r="AS149" s="8">
-        <v>1946</v>
+        <v>1927</v>
       </c>
       <c r="AT149" s="8">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AU149" s="8">
-        <v>1651</v>
+        <v>1618</v>
       </c>
       <c r="AV149" s="8">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="AW149" s="8">
-        <v>3185</v>
+        <v>3199</v>
       </c>
       <c r="AX149" s="8">
-        <v>1929</v>
+        <v>1999</v>
       </c>
       <c r="AY149" s="8">
+        <v>886</v>
+      </c>
+      <c r="AZ149" s="8">
+        <v>3023</v>
+      </c>
+      <c r="BA149" s="8">
+        <v>904</v>
+      </c>
+      <c r="BB149" s="8">
+        <v>436</v>
+      </c>
+      <c r="BC149" s="8">
+        <v>1025</v>
+      </c>
+      <c r="BD149" s="8">
+        <v>1738</v>
+      </c>
+      <c r="BE149" s="8">
+        <v>288</v>
+      </c>
+      <c r="BF149" s="8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="150" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A150" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B150" s="8">
+        <v>18840</v>
+      </c>
+      <c r="C150" s="8">
+        <v>7564</v>
+      </c>
+      <c r="D150" s="8">
+        <v>11276</v>
+      </c>
+      <c r="E150" s="8">
+        <v>704</v>
+      </c>
+      <c r="F150" s="8">
+        <v>2337</v>
+      </c>
+      <c r="G150" s="8">
+        <v>58</v>
+      </c>
+      <c r="H150" s="8">
+        <v>297</v>
+      </c>
+      <c r="I150" s="8">
+        <v>347</v>
+      </c>
+      <c r="J150" s="8">
+        <v>304</v>
+      </c>
+      <c r="K150" s="8">
+        <v>1534</v>
+      </c>
+      <c r="L150" s="8">
+        <v>1617</v>
+      </c>
+      <c r="M150" s="8">
+        <v>175</v>
+      </c>
+      <c r="N150" s="8">
+        <v>1915</v>
+      </c>
+      <c r="O150" s="8">
+        <v>124</v>
+      </c>
+      <c r="P150" s="8">
+        <v>90</v>
+      </c>
+      <c r="Q150" s="8">
+        <v>607</v>
+      </c>
+      <c r="R150" s="8">
+        <v>933</v>
+      </c>
+      <c r="S150" s="8">
+        <v>120</v>
+      </c>
+      <c r="T150" s="8">
+        <v>114</v>
+      </c>
+      <c r="U150" s="8">
+        <v>17056</v>
+      </c>
+      <c r="V150" s="8">
+        <v>3019</v>
+      </c>
+      <c r="W150" s="8">
+        <v>14037</v>
+      </c>
+      <c r="X150" s="8">
+        <v>2100</v>
+      </c>
+      <c r="Y150" s="8">
+        <v>312</v>
+      </c>
+      <c r="Z150" s="8">
+        <v>1784</v>
+      </c>
+      <c r="AA150" s="8">
+        <v>1034</v>
+      </c>
+      <c r="AB150" s="8">
+        <v>1125</v>
+      </c>
+      <c r="AC150" s="8">
+        <v>578</v>
+      </c>
+      <c r="AD150" s="8">
+        <v>1966</v>
+      </c>
+      <c r="AE150" s="8">
+        <v>304</v>
+      </c>
+      <c r="AF150" s="8">
+        <v>798</v>
+      </c>
+      <c r="AG150" s="8">
+        <v>1311</v>
+      </c>
+      <c r="AH150" s="8">
+        <v>854</v>
+      </c>
+      <c r="AI150" s="8">
+        <v>329</v>
+      </c>
+      <c r="AJ150" s="8">
+        <v>245</v>
+      </c>
+      <c r="AK150" s="8">
+        <v>802</v>
+      </c>
+      <c r="AL150" s="8">
+        <v>127</v>
+      </c>
+      <c r="AM150" s="8">
+        <v>369</v>
+      </c>
+      <c r="AN150" s="8">
+        <v>35846</v>
+      </c>
+      <c r="AO150" s="8">
+        <v>10583</v>
+      </c>
+      <c r="AP150" s="8">
+        <v>25263</v>
+      </c>
+      <c r="AQ150" s="8">
+        <v>2804</v>
+      </c>
+      <c r="AR150" s="8">
+        <v>2649</v>
+      </c>
+      <c r="AS150" s="8">
+        <v>1842</v>
+      </c>
+      <c r="AT150" s="8">
+        <v>1331</v>
+      </c>
+      <c r="AU150" s="8">
+        <v>1472</v>
+      </c>
+      <c r="AV150" s="8">
         <v>883</v>
       </c>
-      <c r="AZ149" s="8">
-        <v>3016</v>
-      </c>
-      <c r="BA149" s="8">
-        <v>930</v>
-      </c>
-      <c r="BB149" s="8">
-        <v>392</v>
-      </c>
-      <c r="BC149" s="8">
-        <v>1020</v>
-      </c>
-      <c r="BD149" s="8">
-        <v>1769</v>
-      </c>
-      <c r="BE149" s="8">
-        <v>286</v>
-      </c>
-      <c r="BF149" s="8">
-        <v>540</v>
+      <c r="AW150" s="8">
+        <v>3500</v>
+      </c>
+      <c r="AX150" s="8">
+        <v>1921</v>
+      </c>
+      <c r="AY150" s="8">
+        <v>974</v>
+      </c>
+      <c r="AZ150" s="8">
+        <v>3226</v>
+      </c>
+      <c r="BA150" s="8">
+        <v>978</v>
+      </c>
+      <c r="BB150" s="8">
+        <v>419</v>
+      </c>
+      <c r="BC150" s="8">
+        <v>803</v>
+      </c>
+      <c r="BD150" s="8">
+        <v>1735</v>
+      </c>
+      <c r="BE150" s="8">
+        <v>246</v>
+      </c>
+      <c r="BF150" s="8">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
